--- a/Rentabilidad/Mapeos_CON_Rentabilidad_V1.xlsx
+++ b/Rentabilidad/Mapeos_CON_Rentabilidad_V1.xlsx
@@ -543,9 +543,6 @@
     <t>Validaciones Generales PS_AA_F_RENTAB_BCO/ 4. Búsqueda de la moneda</t>
   </si>
   <si>
-    <t>Upsert PS_AA_F_RENTAB_BCO</t>
-  </si>
-  <si>
     <t>SI</t>
   </si>
   <si>
@@ -643,6 +640,9 @@
   </si>
   <si>
     <t>NUMBER(10)</t>
+  </si>
+  <si>
+    <t>Upsert RES_REN_CON</t>
   </si>
 </sst>
 </file>
@@ -1675,63 +1675,6 @@
     <xf numFmtId="0" fontId="0" fillId="28" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="18" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="21" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="11" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="25" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="12" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="28" borderId="10" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="28" borderId="26" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="28" borderId="14" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="26" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="32" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="31" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1748,6 +1691,63 @@
     <xf numFmtId="0" fontId="2" fillId="28" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="18" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="21" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="11" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="25" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="12" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="28" borderId="10" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="28" borderId="26" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="28" borderId="14" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="26" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="32" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="31" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="85">
     <cellStyle name="20% - Accent1" xfId="1"/>
@@ -2228,7 +2228,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2238,8 +2238,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D68" sqref="D68"/>
+    <sheetView tabSelected="1" topLeftCell="K28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N44" sqref="N44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2276,26 +2276,26 @@
         <v>14</v>
       </c>
       <c r="C2" s="26"/>
-      <c r="D2" s="71" t="s">
+      <c r="D2" s="83" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="72"/>
-      <c r="F2" s="73"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="85"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="80" t="s">
+      <c r="H2" s="92" t="s">
         <v>98</v>
       </c>
-      <c r="I2" s="81"/>
-      <c r="J2" s="82"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="94"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="28" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="29"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="79"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="91"/>
       <c r="G3" s="10"/>
       <c r="H3" s="43"/>
       <c r="I3" s="24" t="s">
@@ -2308,11 +2308,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="74" t="s">
+      <c r="D4" s="86" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="75"/>
-      <c r="F4" s="76"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="88"/>
       <c r="G4" s="7"/>
       <c r="H4" s="44"/>
       <c r="I4" s="42" t="s">
@@ -2325,11 +2325,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="74" t="s">
+      <c r="D5" s="86" t="s">
         <v>105</v>
       </c>
-      <c r="E5" s="75"/>
-      <c r="F5" s="76"/>
+      <c r="E5" s="87"/>
+      <c r="F5" s="88"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -2341,29 +2341,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="69" t="s">
+      <c r="B7" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="70"/>
-      <c r="D7" s="70"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="70"/>
-      <c r="G7" s="70"/>
+      <c r="C7" s="82"/>
+      <c r="D7" s="82"/>
+      <c r="E7" s="82"/>
+      <c r="F7" s="82"/>
+      <c r="G7" s="82"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="66" t="s">
+      <c r="I7" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="67"/>
-      <c r="K7" s="68"/>
+      <c r="J7" s="79"/>
+      <c r="K7" s="80"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="64" t="s">
+      <c r="M7" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="65"/>
-      <c r="O7" s="65"/>
-      <c r="P7" s="65"/>
-      <c r="Q7" s="65"/>
-      <c r="R7" s="65"/>
+      <c r="N7" s="77"/>
+      <c r="O7" s="77"/>
+      <c r="P7" s="77"/>
+      <c r="Q7" s="77"/>
+      <c r="R7" s="77"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -2418,11 +2418,11 @@
       <c r="B9" s="45">
         <v>1</v>
       </c>
-      <c r="C9" s="86" t="s">
+      <c r="C9" s="67" t="s">
         <v>104</v>
       </c>
-      <c r="D9" s="86" t="s">
-        <v>115</v>
+      <c r="D9" s="67" t="s">
+        <v>114</v>
       </c>
       <c r="E9" s="46"/>
       <c r="F9" s="46"/>
@@ -2437,12 +2437,12 @@
       <c r="K9" s="60" t="s">
         <v>109</v>
       </c>
-      <c r="L9" s="94"/>
-      <c r="M9" s="90">
+      <c r="L9" s="75"/>
+      <c r="M9" s="71">
         <v>59</v>
       </c>
       <c r="N9" s="34" t="s">
-        <v>113</v>
+        <v>146</v>
       </c>
       <c r="O9" s="23" t="s">
         <v>29</v>
@@ -2454,17 +2454,17 @@
         <v>17</v>
       </c>
       <c r="R9" s="37" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B10" s="47">
         <v>2</v>
       </c>
-      <c r="C10" s="83" t="s">
-        <v>116</v>
-      </c>
-      <c r="D10" s="83" t="s">
+      <c r="C10" s="64" t="s">
+        <v>115</v>
+      </c>
+      <c r="D10" s="64" t="s">
         <v>16</v>
       </c>
       <c r="E10" s="40"/>
@@ -2480,12 +2480,12 @@
       <c r="K10" s="36" t="s">
         <v>110</v>
       </c>
-      <c r="L10" s="94"/>
-      <c r="M10" s="91">
+      <c r="L10" s="75"/>
+      <c r="M10" s="72">
         <v>60</v>
       </c>
       <c r="N10" s="30" t="s">
-        <v>113</v>
+        <v>146</v>
       </c>
       <c r="O10" s="35" t="s">
         <v>30</v>
@@ -2497,18 +2497,18 @@
         <v>17</v>
       </c>
       <c r="R10" s="41" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B11" s="47">
         <v>3</v>
       </c>
-      <c r="C11" s="83" t="s">
+      <c r="C11" s="64" t="s">
+        <v>116</v>
+      </c>
+      <c r="D11" s="64" t="s">
         <v>117</v>
-      </c>
-      <c r="D11" s="83" t="s">
-        <v>118</v>
       </c>
       <c r="E11" s="40"/>
       <c r="F11" s="35"/>
@@ -2523,12 +2523,12 @@
       <c r="K11" s="36" t="s">
         <v>111</v>
       </c>
-      <c r="L11" s="94"/>
-      <c r="M11" s="91">
+      <c r="L11" s="75"/>
+      <c r="M11" s="72">
         <v>61</v>
       </c>
       <c r="N11" s="30" t="s">
-        <v>113</v>
+        <v>146</v>
       </c>
       <c r="O11" s="35" t="s">
         <v>27</v>
@@ -2540,18 +2540,18 @@
         <v>17</v>
       </c>
       <c r="R11" s="41" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B12" s="47">
         <v>4</v>
       </c>
-      <c r="C12" s="83" t="s">
+      <c r="C12" s="64" t="s">
+        <v>118</v>
+      </c>
+      <c r="D12" s="64" t="s">
         <v>119</v>
-      </c>
-      <c r="D12" s="83" t="s">
-        <v>120</v>
       </c>
       <c r="E12" s="40"/>
       <c r="F12" s="35"/>
@@ -2566,12 +2566,12 @@
       <c r="K12" s="36" t="s">
         <v>112</v>
       </c>
-      <c r="L12" s="94"/>
-      <c r="M12" s="91">
+      <c r="L12" s="75"/>
+      <c r="M12" s="72">
         <v>62</v>
       </c>
       <c r="N12" s="30" t="s">
-        <v>113</v>
+        <v>146</v>
       </c>
       <c r="O12" s="35" t="s">
         <v>31</v>
@@ -2583,18 +2583,18 @@
         <v>19</v>
       </c>
       <c r="R12" s="41" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="48">
         <v>5</v>
       </c>
-      <c r="C13" s="83" t="s">
+      <c r="C13" s="64" t="s">
+        <v>120</v>
+      </c>
+      <c r="D13" s="64" t="s">
         <v>121</v>
-      </c>
-      <c r="D13" s="83" t="s">
-        <v>122</v>
       </c>
       <c r="E13" s="40"/>
       <c r="F13" s="35"/>
@@ -2610,11 +2610,11 @@
         <v>108</v>
       </c>
       <c r="L13" s="38"/>
-      <c r="M13" s="91">
+      <c r="M13" s="72">
         <v>23</v>
       </c>
       <c r="N13" s="30" t="s">
-        <v>113</v>
+        <v>146</v>
       </c>
       <c r="O13" s="35" t="s">
         <v>32</v>
@@ -2631,10 +2631,10 @@
       <c r="B14" s="48">
         <v>6</v>
       </c>
-      <c r="C14" s="83" t="s">
-        <v>123</v>
-      </c>
-      <c r="D14" s="83" t="s">
+      <c r="C14" s="64" t="s">
+        <v>122</v>
+      </c>
+      <c r="D14" s="64" t="s">
         <v>16</v>
       </c>
       <c r="E14" s="40"/>
@@ -2642,11 +2642,11 @@
       <c r="G14" s="53"/>
       <c r="H14" s="38"/>
       <c r="L14" s="38"/>
-      <c r="M14" s="91">
+      <c r="M14" s="72">
         <v>24</v>
       </c>
       <c r="N14" s="30" t="s">
-        <v>113</v>
+        <v>146</v>
       </c>
       <c r="O14" s="35" t="s">
         <v>34</v>
@@ -2663,11 +2663,11 @@
       <c r="B15" s="48">
         <v>7</v>
       </c>
-      <c r="C15" s="83" t="s">
-        <v>124</v>
-      </c>
-      <c r="D15" s="83" t="s">
-        <v>120</v>
+      <c r="C15" s="64" t="s">
+        <v>123</v>
+      </c>
+      <c r="D15" s="64" t="s">
+        <v>119</v>
       </c>
       <c r="E15" s="40"/>
       <c r="F15" s="35"/>
@@ -2678,7 +2678,7 @@
         <v>25</v>
       </c>
       <c r="N15" s="30" t="s">
-        <v>113</v>
+        <v>146</v>
       </c>
       <c r="O15" s="35" t="s">
         <v>35</v>
@@ -2695,22 +2695,22 @@
       <c r="B16" s="48">
         <v>8</v>
       </c>
-      <c r="C16" s="83" t="s">
-        <v>125</v>
-      </c>
-      <c r="D16" s="83" t="s">
-        <v>120</v>
+      <c r="C16" s="64" t="s">
+        <v>124</v>
+      </c>
+      <c r="D16" s="64" t="s">
+        <v>119</v>
       </c>
       <c r="E16" s="40"/>
       <c r="F16" s="35"/>
       <c r="G16" s="53"/>
       <c r="H16" s="38"/>
       <c r="L16" s="38"/>
-      <c r="M16" s="91">
+      <c r="M16" s="72">
         <v>26</v>
       </c>
       <c r="N16" s="30" t="s">
-        <v>113</v>
+        <v>146</v>
       </c>
       <c r="O16" s="35" t="s">
         <v>36</v>
@@ -2727,22 +2727,22 @@
       <c r="B17" s="48">
         <v>9</v>
       </c>
-      <c r="C17" s="83" t="s">
+      <c r="C17" s="64" t="s">
+        <v>125</v>
+      </c>
+      <c r="D17" s="64" t="s">
         <v>126</v>
-      </c>
-      <c r="D17" s="83" t="s">
-        <v>127</v>
       </c>
       <c r="E17" s="40"/>
       <c r="F17" s="35"/>
       <c r="G17" s="53"/>
       <c r="H17" s="38"/>
       <c r="L17" s="38"/>
-      <c r="M17" s="92">
+      <c r="M17" s="73">
         <v>27</v>
       </c>
       <c r="N17" s="30" t="s">
-        <v>113</v>
+        <v>146</v>
       </c>
       <c r="O17" s="35" t="s">
         <v>37</v>
@@ -2759,22 +2759,22 @@
       <c r="B18" s="48">
         <v>10</v>
       </c>
-      <c r="C18" s="83" t="s">
+      <c r="C18" s="64" t="s">
+        <v>127</v>
+      </c>
+      <c r="D18" s="64" t="s">
         <v>128</v>
-      </c>
-      <c r="D18" s="83" t="s">
-        <v>129</v>
       </c>
       <c r="E18" s="40"/>
       <c r="F18" s="35"/>
       <c r="G18" s="53"/>
       <c r="H18" s="38"/>
       <c r="L18" s="38"/>
-      <c r="M18" s="92">
+      <c r="M18" s="73">
         <v>28</v>
       </c>
       <c r="N18" s="30" t="s">
-        <v>113</v>
+        <v>146</v>
       </c>
       <c r="O18" s="35" t="s">
         <v>38</v>
@@ -2791,10 +2791,10 @@
       <c r="B19" s="48">
         <v>11</v>
       </c>
-      <c r="C19" s="83" t="s">
-        <v>130</v>
-      </c>
-      <c r="D19" s="83" t="s">
+      <c r="C19" s="64" t="s">
+        <v>129</v>
+      </c>
+      <c r="D19" s="64" t="s">
         <v>16</v>
       </c>
       <c r="E19" s="40"/>
@@ -2802,11 +2802,11 @@
       <c r="G19" s="53"/>
       <c r="H19" s="38"/>
       <c r="L19" s="38"/>
-      <c r="M19" s="92">
+      <c r="M19" s="73">
         <v>29</v>
       </c>
       <c r="N19" s="30" t="s">
-        <v>113</v>
+        <v>146</v>
       </c>
       <c r="O19" s="35" t="s">
         <v>39</v>
@@ -2823,10 +2823,10 @@
       <c r="B20" s="48">
         <v>12</v>
       </c>
-      <c r="C20" s="83" t="s">
-        <v>131</v>
-      </c>
-      <c r="D20" s="83" t="s">
+      <c r="C20" s="64" t="s">
+        <v>130</v>
+      </c>
+      <c r="D20" s="64" t="s">
         <v>16</v>
       </c>
       <c r="E20" s="40"/>
@@ -2834,11 +2834,11 @@
       <c r="G20" s="53"/>
       <c r="H20" s="38"/>
       <c r="L20" s="38"/>
-      <c r="M20" s="91">
+      <c r="M20" s="72">
         <v>30</v>
       </c>
       <c r="N20" s="30" t="s">
-        <v>113</v>
+        <v>146</v>
       </c>
       <c r="O20" s="35" t="s">
         <v>40</v>
@@ -2855,22 +2855,22 @@
       <c r="B21" s="48">
         <v>13</v>
       </c>
-      <c r="C21" s="83" t="s">
+      <c r="C21" s="64" t="s">
+        <v>131</v>
+      </c>
+      <c r="D21" s="64" t="s">
         <v>132</v>
-      </c>
-      <c r="D21" s="83" t="s">
-        <v>133</v>
       </c>
       <c r="E21" s="40"/>
       <c r="F21" s="35"/>
       <c r="G21" s="53"/>
       <c r="H21" s="38"/>
       <c r="L21" s="38"/>
-      <c r="M21" s="92">
+      <c r="M21" s="73">
         <v>31</v>
       </c>
       <c r="N21" s="30" t="s">
-        <v>113</v>
+        <v>146</v>
       </c>
       <c r="O21" s="35" t="s">
         <v>41</v>
@@ -2887,10 +2887,10 @@
       <c r="B22" s="47">
         <v>14</v>
       </c>
-      <c r="C22" s="83" t="s">
-        <v>134</v>
-      </c>
-      <c r="D22" s="83" t="s">
+      <c r="C22" s="64" t="s">
+        <v>133</v>
+      </c>
+      <c r="D22" s="64" t="s">
         <v>16</v>
       </c>
       <c r="E22" s="40"/>
@@ -2898,11 +2898,11 @@
       <c r="G22" s="53"/>
       <c r="H22" s="38"/>
       <c r="L22" s="38"/>
-      <c r="M22" s="92">
+      <c r="M22" s="73">
         <v>32</v>
       </c>
       <c r="N22" s="30" t="s">
-        <v>113</v>
+        <v>146</v>
       </c>
       <c r="O22" s="35" t="s">
         <v>42</v>
@@ -2919,22 +2919,22 @@
       <c r="B23" s="47">
         <v>15</v>
       </c>
-      <c r="C23" s="83" t="s">
+      <c r="C23" s="64" t="s">
+        <v>134</v>
+      </c>
+      <c r="D23" s="64" t="s">
         <v>135</v>
-      </c>
-      <c r="D23" s="83" t="s">
-        <v>136</v>
       </c>
       <c r="E23" s="40"/>
       <c r="F23" s="35"/>
       <c r="G23" s="53"/>
       <c r="H23" s="38"/>
       <c r="L23" s="38"/>
-      <c r="M23" s="92">
+      <c r="M23" s="73">
         <v>33</v>
       </c>
       <c r="N23" s="30" t="s">
-        <v>113</v>
+        <v>146</v>
       </c>
       <c r="O23" s="35" t="s">
         <v>43</v>
@@ -2951,22 +2951,22 @@
       <c r="B24" s="47">
         <v>16</v>
       </c>
-      <c r="C24" s="83" t="s">
+      <c r="C24" s="64" t="s">
         <v>101</v>
       </c>
-      <c r="D24" s="83" t="s">
-        <v>127</v>
+      <c r="D24" s="64" t="s">
+        <v>126</v>
       </c>
       <c r="E24" s="40"/>
       <c r="F24" s="35"/>
       <c r="G24" s="53"/>
       <c r="H24" s="38"/>
       <c r="L24" s="38"/>
-      <c r="M24" s="92">
+      <c r="M24" s="73">
         <v>34</v>
       </c>
       <c r="N24" s="30" t="s">
-        <v>113</v>
+        <v>146</v>
       </c>
       <c r="O24" s="35" t="s">
         <v>44</v>
@@ -2983,22 +2983,22 @@
       <c r="B25" s="47">
         <v>17</v>
       </c>
-      <c r="C25" s="83" t="s">
-        <v>137</v>
-      </c>
-      <c r="D25" s="83" t="s">
-        <v>129</v>
+      <c r="C25" s="64" t="s">
+        <v>136</v>
+      </c>
+      <c r="D25" s="64" t="s">
+        <v>128</v>
       </c>
       <c r="E25" s="40"/>
       <c r="F25" s="35"/>
       <c r="G25" s="53"/>
       <c r="H25" s="38"/>
       <c r="L25" s="38"/>
-      <c r="M25" s="92">
+      <c r="M25" s="73">
         <v>35</v>
       </c>
       <c r="N25" s="30" t="s">
-        <v>113</v>
+        <v>146</v>
       </c>
       <c r="O25" s="35" t="s">
         <v>45</v>
@@ -3015,22 +3015,22 @@
       <c r="B26" s="48">
         <v>18</v>
       </c>
-      <c r="C26" s="83" t="s">
-        <v>138</v>
-      </c>
-      <c r="D26" s="83" t="s">
-        <v>118</v>
+      <c r="C26" s="64" t="s">
+        <v>137</v>
+      </c>
+      <c r="D26" s="64" t="s">
+        <v>117</v>
       </c>
       <c r="E26" s="40"/>
       <c r="F26" s="35"/>
       <c r="G26" s="53"/>
       <c r="H26" s="38"/>
       <c r="L26" s="38"/>
-      <c r="M26" s="92">
+      <c r="M26" s="73">
         <v>36</v>
       </c>
       <c r="N26" s="30" t="s">
-        <v>113</v>
+        <v>146</v>
       </c>
       <c r="O26" s="35" t="s">
         <v>46</v>
@@ -3047,22 +3047,22 @@
       <c r="B27" s="48">
         <v>19</v>
       </c>
-      <c r="C27" s="83" t="s">
+      <c r="C27" s="64" t="s">
+        <v>138</v>
+      </c>
+      <c r="D27" s="64" t="s">
         <v>139</v>
-      </c>
-      <c r="D27" s="83" t="s">
-        <v>140</v>
       </c>
       <c r="E27" s="40"/>
       <c r="F27" s="35"/>
       <c r="G27" s="53"/>
       <c r="H27" s="38"/>
       <c r="L27" s="38"/>
-      <c r="M27" s="92">
+      <c r="M27" s="73">
         <v>37</v>
       </c>
       <c r="N27" s="30" t="s">
-        <v>113</v>
+        <v>146</v>
       </c>
       <c r="O27" s="35" t="s">
         <v>47</v>
@@ -3079,10 +3079,10 @@
       <c r="B28" s="48">
         <v>20</v>
       </c>
-      <c r="C28" s="83" t="s">
-        <v>141</v>
-      </c>
-      <c r="D28" s="83" t="s">
+      <c r="C28" s="64" t="s">
+        <v>140</v>
+      </c>
+      <c r="D28" s="64" t="s">
         <v>65</v>
       </c>
       <c r="E28" s="40"/>
@@ -3090,11 +3090,11 @@
       <c r="G28" s="53"/>
       <c r="H28" s="38"/>
       <c r="L28" s="38"/>
-      <c r="M28" s="92">
+      <c r="M28" s="73">
         <v>38</v>
       </c>
       <c r="N28" s="30" t="s">
-        <v>113</v>
+        <v>146</v>
       </c>
       <c r="O28" s="35" t="s">
         <v>48</v>
@@ -3111,10 +3111,10 @@
       <c r="B29" s="48">
         <v>21</v>
       </c>
-      <c r="C29" s="83" t="s">
+      <c r="C29" s="64" t="s">
         <v>102</v>
       </c>
-      <c r="D29" s="83" t="s">
+      <c r="D29" s="64" t="s">
         <v>16</v>
       </c>
       <c r="E29" s="40"/>
@@ -3122,11 +3122,11 @@
       <c r="G29" s="53"/>
       <c r="H29" s="38"/>
       <c r="L29" s="38"/>
-      <c r="M29" s="92">
+      <c r="M29" s="73">
         <v>39</v>
       </c>
       <c r="N29" s="30" t="s">
-        <v>113</v>
+        <v>146</v>
       </c>
       <c r="O29" s="35" t="s">
         <v>49</v>
@@ -3143,10 +3143,10 @@
       <c r="B30" s="48">
         <v>22</v>
       </c>
-      <c r="C30" s="83" t="s">
+      <c r="C30" s="64" t="s">
         <v>103</v>
       </c>
-      <c r="D30" s="83" t="s">
+      <c r="D30" s="64" t="s">
         <v>16</v>
       </c>
       <c r="E30" s="40"/>
@@ -3154,11 +3154,11 @@
       <c r="G30" s="53"/>
       <c r="H30" s="38"/>
       <c r="L30" s="38"/>
-      <c r="M30" s="92">
+      <c r="M30" s="73">
         <v>40</v>
       </c>
       <c r="N30" s="30" t="s">
-        <v>113</v>
+        <v>146</v>
       </c>
       <c r="O30" s="35" t="s">
         <v>50</v>
@@ -3175,10 +3175,10 @@
       <c r="B31" s="48">
         <v>23</v>
       </c>
-      <c r="C31" s="83" t="s">
+      <c r="C31" s="64" t="s">
         <v>64</v>
       </c>
-      <c r="D31" s="83" t="s">
+      <c r="D31" s="64" t="s">
         <v>65</v>
       </c>
       <c r="E31" s="40"/>
@@ -3186,11 +3186,11 @@
       <c r="G31" s="53"/>
       <c r="H31" s="38"/>
       <c r="L31" s="38"/>
-      <c r="M31" s="92">
+      <c r="M31" s="73">
         <v>41</v>
       </c>
       <c r="N31" s="30" t="s">
-        <v>113</v>
+        <v>146</v>
       </c>
       <c r="O31" s="35" t="s">
         <v>51</v>
@@ -3207,10 +3207,10 @@
       <c r="B32" s="48">
         <v>24</v>
       </c>
-      <c r="C32" s="83" t="s">
+      <c r="C32" s="64" t="s">
         <v>66</v>
       </c>
-      <c r="D32" s="83" t="s">
+      <c r="D32" s="64" t="s">
         <v>65</v>
       </c>
       <c r="E32" s="40"/>
@@ -3218,11 +3218,11 @@
       <c r="G32" s="53"/>
       <c r="H32" s="38"/>
       <c r="L32" s="38"/>
-      <c r="M32" s="91">
+      <c r="M32" s="72">
         <v>42</v>
       </c>
       <c r="N32" s="30" t="s">
-        <v>113</v>
+        <v>146</v>
       </c>
       <c r="O32" s="35" t="s">
         <v>52</v>
@@ -3239,10 +3239,10 @@
       <c r="B33" s="48">
         <v>25</v>
       </c>
-      <c r="C33" s="83" t="s">
+      <c r="C33" s="64" t="s">
         <v>67</v>
       </c>
-      <c r="D33" s="83" t="s">
+      <c r="D33" s="64" t="s">
         <v>65</v>
       </c>
       <c r="E33" s="40"/>
@@ -3250,11 +3250,11 @@
       <c r="G33" s="53"/>
       <c r="H33" s="38"/>
       <c r="L33" s="38"/>
-      <c r="M33" s="91">
+      <c r="M33" s="72">
         <v>43</v>
       </c>
       <c r="N33" s="30" t="s">
-        <v>113</v>
+        <v>146</v>
       </c>
       <c r="O33" s="35" t="s">
         <v>53</v>
@@ -3271,10 +3271,10 @@
       <c r="B34" s="48">
         <v>26</v>
       </c>
-      <c r="C34" s="83" t="s">
+      <c r="C34" s="64" t="s">
         <v>68</v>
       </c>
-      <c r="D34" s="83" t="s">
+      <c r="D34" s="64" t="s">
         <v>65</v>
       </c>
       <c r="E34" s="40"/>
@@ -3282,11 +3282,11 @@
       <c r="G34" s="53"/>
       <c r="H34" s="38"/>
       <c r="L34" s="38"/>
-      <c r="M34" s="91">
+      <c r="M34" s="72">
         <v>44</v>
       </c>
       <c r="N34" s="30" t="s">
-        <v>113</v>
+        <v>146</v>
       </c>
       <c r="O34" s="35" t="s">
         <v>54</v>
@@ -3303,10 +3303,10 @@
       <c r="B35" s="47">
         <v>27</v>
       </c>
-      <c r="C35" s="83" t="s">
+      <c r="C35" s="64" t="s">
         <v>69</v>
       </c>
-      <c r="D35" s="83" t="s">
+      <c r="D35" s="64" t="s">
         <v>65</v>
       </c>
       <c r="E35" s="40"/>
@@ -3314,11 +3314,11 @@
       <c r="G35" s="53"/>
       <c r="H35" s="38"/>
       <c r="L35" s="38"/>
-      <c r="M35" s="91">
+      <c r="M35" s="72">
         <v>45</v>
       </c>
       <c r="N35" s="30" t="s">
-        <v>113</v>
+        <v>146</v>
       </c>
       <c r="O35" s="35" t="s">
         <v>55</v>
@@ -3335,10 +3335,10 @@
       <c r="B36" s="47">
         <v>28</v>
       </c>
-      <c r="C36" s="83" t="s">
+      <c r="C36" s="64" t="s">
         <v>70</v>
       </c>
-      <c r="D36" s="83" t="s">
+      <c r="D36" s="64" t="s">
         <v>65</v>
       </c>
       <c r="E36" s="40"/>
@@ -3346,11 +3346,11 @@
       <c r="G36" s="53"/>
       <c r="H36" s="38"/>
       <c r="L36" s="38"/>
-      <c r="M36" s="92">
+      <c r="M36" s="73">
         <v>46</v>
       </c>
       <c r="N36" s="30" t="s">
-        <v>113</v>
+        <v>146</v>
       </c>
       <c r="O36" s="35" t="s">
         <v>56</v>
@@ -3370,7 +3370,7 @@
       <c r="C37" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="D37" s="83" t="s">
+      <c r="D37" s="64" t="s">
         <v>65</v>
       </c>
       <c r="E37" s="40"/>
@@ -3378,11 +3378,11 @@
       <c r="G37" s="53"/>
       <c r="H37" s="38"/>
       <c r="L37" s="38"/>
-      <c r="M37" s="92">
+      <c r="M37" s="73">
         <v>47</v>
       </c>
       <c r="N37" s="30" t="s">
-        <v>113</v>
+        <v>146</v>
       </c>
       <c r="O37" s="35" t="s">
         <v>57</v>
@@ -3399,10 +3399,10 @@
       <c r="B38" s="47">
         <v>30</v>
       </c>
-      <c r="C38" s="83" t="s">
+      <c r="C38" s="64" t="s">
         <v>72</v>
       </c>
-      <c r="D38" s="83" t="s">
+      <c r="D38" s="64" t="s">
         <v>65</v>
       </c>
       <c r="E38" s="40"/>
@@ -3410,11 +3410,11 @@
       <c r="G38" s="53"/>
       <c r="H38" s="38"/>
       <c r="L38" s="38"/>
-      <c r="M38" s="92">
+      <c r="M38" s="73">
         <v>48</v>
       </c>
       <c r="N38" s="30" t="s">
-        <v>113</v>
+        <v>146</v>
       </c>
       <c r="O38" s="35" t="s">
         <v>58</v>
@@ -3431,10 +3431,10 @@
       <c r="B39" s="48">
         <v>31</v>
       </c>
-      <c r="C39" s="83" t="s">
+      <c r="C39" s="64" t="s">
         <v>73</v>
       </c>
-      <c r="D39" s="83" t="s">
+      <c r="D39" s="64" t="s">
         <v>65</v>
       </c>
       <c r="E39" s="40"/>
@@ -3442,11 +3442,11 @@
       <c r="G39" s="53"/>
       <c r="H39" s="38"/>
       <c r="L39" s="38"/>
-      <c r="M39" s="92">
+      <c r="M39" s="73">
         <v>49</v>
       </c>
       <c r="N39" s="30" t="s">
-        <v>113</v>
+        <v>146</v>
       </c>
       <c r="O39" s="35" t="s">
         <v>59</v>
@@ -3463,10 +3463,10 @@
       <c r="B40" s="48">
         <v>32</v>
       </c>
-      <c r="C40" s="83" t="s">
+      <c r="C40" s="64" t="s">
         <v>74</v>
       </c>
-      <c r="D40" s="83" t="s">
+      <c r="D40" s="64" t="s">
         <v>65</v>
       </c>
       <c r="E40" s="24"/>
@@ -3474,11 +3474,11 @@
       <c r="G40" s="53"/>
       <c r="H40" s="38"/>
       <c r="L40" s="38"/>
-      <c r="M40" s="92">
+      <c r="M40" s="73">
         <v>50</v>
       </c>
       <c r="N40" s="30" t="s">
-        <v>113</v>
+        <v>146</v>
       </c>
       <c r="O40" s="35" t="s">
         <v>60</v>
@@ -3495,10 +3495,10 @@
       <c r="B41" s="48">
         <v>33</v>
       </c>
-      <c r="C41" s="83" t="s">
+      <c r="C41" s="64" t="s">
         <v>75</v>
       </c>
-      <c r="D41" s="83" t="s">
+      <c r="D41" s="64" t="s">
         <v>65</v>
       </c>
       <c r="E41" s="24"/>
@@ -3506,11 +3506,11 @@
       <c r="G41" s="53"/>
       <c r="H41" s="38"/>
       <c r="L41" s="38"/>
-      <c r="M41" s="92">
+      <c r="M41" s="73">
         <v>51</v>
       </c>
       <c r="N41" s="30" t="s">
-        <v>113</v>
+        <v>146</v>
       </c>
       <c r="O41" s="35" t="s">
         <v>61</v>
@@ -3527,10 +3527,10 @@
       <c r="B42" s="48">
         <v>34</v>
       </c>
-      <c r="C42" s="83" t="s">
+      <c r="C42" s="64" t="s">
         <v>76</v>
       </c>
-      <c r="D42" s="83" t="s">
+      <c r="D42" s="64" t="s">
         <v>65</v>
       </c>
       <c r="E42" s="24"/>
@@ -3538,11 +3538,11 @@
       <c r="G42" s="53"/>
       <c r="H42" s="38"/>
       <c r="L42" s="38"/>
-      <c r="M42" s="92">
+      <c r="M42" s="73">
         <v>52</v>
       </c>
       <c r="N42" s="30" t="s">
-        <v>113</v>
+        <v>146</v>
       </c>
       <c r="O42" s="35" t="s">
         <v>62</v>
@@ -3559,10 +3559,10 @@
       <c r="B43" s="48">
         <v>35</v>
       </c>
-      <c r="C43" s="83" t="s">
+      <c r="C43" s="64" t="s">
         <v>77</v>
       </c>
-      <c r="D43" s="83" t="s">
+      <c r="D43" s="64" t="s">
         <v>65</v>
       </c>
       <c r="E43" s="24"/>
@@ -3570,11 +3570,11 @@
       <c r="G43" s="53"/>
       <c r="H43" s="38"/>
       <c r="L43" s="39"/>
-      <c r="M43" s="93">
+      <c r="M43" s="74">
         <v>63</v>
       </c>
       <c r="N43" s="56" t="s">
-        <v>113</v>
+        <v>146</v>
       </c>
       <c r="O43" s="57" t="s">
         <v>21</v>
@@ -3591,341 +3591,341 @@
       <c r="B44" s="48">
         <v>36</v>
       </c>
-      <c r="C44" s="83" t="s">
+      <c r="C44" s="64" t="s">
         <v>78</v>
       </c>
-      <c r="D44" s="83" t="s">
+      <c r="D44" s="64" t="s">
         <v>65</v>
       </c>
-      <c r="E44" s="84"/>
+      <c r="E44" s="65"/>
       <c r="F44" s="24"/>
-      <c r="G44" s="89"/>
+      <c r="G44" s="70"/>
       <c r="H44" s="38"/>
     </row>
     <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B45" s="48">
         <v>37</v>
       </c>
-      <c r="C45" s="83" t="s">
+      <c r="C45" s="64" t="s">
         <v>79</v>
       </c>
-      <c r="D45" s="83" t="s">
+      <c r="D45" s="64" t="s">
         <v>65</v>
       </c>
-      <c r="E45" s="84"/>
-      <c r="F45" s="85"/>
-      <c r="G45" s="89"/>
+      <c r="E45" s="65"/>
+      <c r="F45" s="66"/>
+      <c r="G45" s="70"/>
       <c r="H45" s="38"/>
     </row>
     <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B46" s="48">
         <v>38</v>
       </c>
-      <c r="C46" s="83" t="s">
+      <c r="C46" s="64" t="s">
         <v>80</v>
       </c>
-      <c r="D46" s="83" t="s">
+      <c r="D46" s="64" t="s">
         <v>65</v>
       </c>
-      <c r="E46" s="84"/>
-      <c r="F46" s="85"/>
-      <c r="G46" s="89"/>
+      <c r="E46" s="65"/>
+      <c r="F46" s="66"/>
+      <c r="G46" s="70"/>
       <c r="H46" s="38"/>
     </row>
     <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B47" s="48">
         <v>39</v>
       </c>
-      <c r="C47" s="83" t="s">
+      <c r="C47" s="64" t="s">
         <v>81</v>
       </c>
-      <c r="D47" s="83" t="s">
+      <c r="D47" s="64" t="s">
         <v>65</v>
       </c>
-      <c r="E47" s="84"/>
-      <c r="F47" s="85"/>
-      <c r="G47" s="89"/>
+      <c r="E47" s="65"/>
+      <c r="F47" s="66"/>
+      <c r="G47" s="70"/>
       <c r="H47" s="38"/>
     </row>
     <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B48" s="48">
         <v>40</v>
       </c>
-      <c r="C48" s="83" t="s">
+      <c r="C48" s="64" t="s">
         <v>82</v>
       </c>
-      <c r="D48" s="83" t="s">
+      <c r="D48" s="64" t="s">
         <v>65</v>
       </c>
-      <c r="E48" s="84"/>
-      <c r="F48" s="85"/>
-      <c r="G48" s="89"/>
+      <c r="E48" s="65"/>
+      <c r="F48" s="66"/>
+      <c r="G48" s="70"/>
       <c r="H48" s="38"/>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B49" s="48">
         <v>41</v>
       </c>
-      <c r="C49" s="83" t="s">
+      <c r="C49" s="64" t="s">
         <v>83</v>
       </c>
-      <c r="D49" s="83" t="s">
+      <c r="D49" s="64" t="s">
         <v>65</v>
       </c>
-      <c r="E49" s="84"/>
-      <c r="F49" s="85"/>
-      <c r="G49" s="89"/>
+      <c r="E49" s="65"/>
+      <c r="F49" s="66"/>
+      <c r="G49" s="70"/>
       <c r="H49" s="38"/>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B50" s="47">
         <v>42</v>
       </c>
-      <c r="C50" s="83" t="s">
+      <c r="C50" s="64" t="s">
         <v>84</v>
       </c>
-      <c r="D50" s="83" t="s">
+      <c r="D50" s="64" t="s">
         <v>65</v>
       </c>
-      <c r="E50" s="84"/>
-      <c r="F50" s="85"/>
-      <c r="G50" s="89"/>
+      <c r="E50" s="65"/>
+      <c r="F50" s="66"/>
+      <c r="G50" s="70"/>
       <c r="H50" s="38"/>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B51" s="47">
         <v>43</v>
       </c>
-      <c r="C51" s="83" t="s">
+      <c r="C51" s="64" t="s">
         <v>85</v>
       </c>
-      <c r="D51" s="83" t="s">
+      <c r="D51" s="64" t="s">
         <v>65</v>
       </c>
-      <c r="E51" s="84"/>
-      <c r="F51" s="85"/>
-      <c r="G51" s="89"/>
+      <c r="E51" s="65"/>
+      <c r="F51" s="66"/>
+      <c r="G51" s="70"/>
       <c r="H51" s="38"/>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B52" s="47">
         <v>44</v>
       </c>
-      <c r="C52" s="83" t="s">
+      <c r="C52" s="64" t="s">
         <v>86</v>
       </c>
-      <c r="D52" s="83" t="s">
+      <c r="D52" s="64" t="s">
         <v>65</v>
       </c>
-      <c r="E52" s="84"/>
-      <c r="F52" s="85"/>
-      <c r="G52" s="89"/>
+      <c r="E52" s="65"/>
+      <c r="F52" s="66"/>
+      <c r="G52" s="70"/>
       <c r="H52" s="38"/>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B53" s="47">
         <v>45</v>
       </c>
-      <c r="C53" s="83" t="s">
+      <c r="C53" s="64" t="s">
         <v>87</v>
       </c>
-      <c r="D53" s="83" t="s">
+      <c r="D53" s="64" t="s">
         <v>65</v>
       </c>
-      <c r="E53" s="84"/>
-      <c r="F53" s="85"/>
-      <c r="G53" s="89"/>
+      <c r="E53" s="65"/>
+      <c r="F53" s="66"/>
+      <c r="G53" s="70"/>
       <c r="H53" s="38"/>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B54" s="48">
         <v>46</v>
       </c>
-      <c r="C54" s="83" t="s">
+      <c r="C54" s="64" t="s">
         <v>88</v>
       </c>
-      <c r="D54" s="83" t="s">
+      <c r="D54" s="64" t="s">
         <v>65</v>
       </c>
-      <c r="E54" s="84"/>
-      <c r="F54" s="85"/>
-      <c r="G54" s="89"/>
+      <c r="E54" s="65"/>
+      <c r="F54" s="66"/>
+      <c r="G54" s="70"/>
       <c r="H54" s="38"/>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B55" s="48">
         <v>47</v>
       </c>
-      <c r="C55" s="83" t="s">
+      <c r="C55" s="64" t="s">
         <v>89</v>
       </c>
-      <c r="D55" s="83" t="s">
+      <c r="D55" s="64" t="s">
         <v>65</v>
       </c>
-      <c r="E55" s="84"/>
-      <c r="F55" s="85"/>
-      <c r="G55" s="89"/>
+      <c r="E55" s="65"/>
+      <c r="F55" s="66"/>
+      <c r="G55" s="70"/>
       <c r="H55" s="38"/>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B56" s="48">
         <v>48</v>
       </c>
-      <c r="C56" s="83" t="s">
+      <c r="C56" s="64" t="s">
         <v>90</v>
       </c>
-      <c r="D56" s="83" t="s">
+      <c r="D56" s="64" t="s">
         <v>65</v>
       </c>
-      <c r="E56" s="84"/>
-      <c r="F56" s="85"/>
-      <c r="G56" s="89"/>
+      <c r="E56" s="65"/>
+      <c r="F56" s="66"/>
+      <c r="G56" s="70"/>
       <c r="H56" s="38"/>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B57" s="48">
         <v>49</v>
       </c>
-      <c r="C57" s="83" t="s">
+      <c r="C57" s="64" t="s">
         <v>91</v>
       </c>
-      <c r="D57" s="83" t="s">
+      <c r="D57" s="64" t="s">
         <v>65</v>
       </c>
-      <c r="E57" s="84"/>
-      <c r="F57" s="85"/>
-      <c r="G57" s="89"/>
+      <c r="E57" s="65"/>
+      <c r="F57" s="66"/>
+      <c r="G57" s="70"/>
       <c r="H57" s="38"/>
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B58" s="48">
         <v>50</v>
       </c>
-      <c r="C58" s="83" t="s">
+      <c r="C58" s="64" t="s">
         <v>92</v>
       </c>
-      <c r="D58" s="83" t="s">
+      <c r="D58" s="64" t="s">
         <v>65</v>
       </c>
-      <c r="E58" s="84"/>
-      <c r="F58" s="85"/>
-      <c r="G58" s="89"/>
+      <c r="E58" s="65"/>
+      <c r="F58" s="66"/>
+      <c r="G58" s="70"/>
       <c r="H58" s="38"/>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B59" s="48">
         <v>51</v>
       </c>
-      <c r="C59" s="83" t="s">
+      <c r="C59" s="64" t="s">
         <v>93</v>
       </c>
-      <c r="D59" s="83" t="s">
+      <c r="D59" s="64" t="s">
         <v>65</v>
       </c>
-      <c r="E59" s="84"/>
-      <c r="F59" s="85"/>
-      <c r="G59" s="89"/>
+      <c r="E59" s="65"/>
+      <c r="F59" s="66"/>
+      <c r="G59" s="70"/>
       <c r="H59" s="38"/>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B60" s="48">
         <v>52</v>
       </c>
-      <c r="C60" s="83" t="s">
+      <c r="C60" s="64" t="s">
         <v>94</v>
       </c>
-      <c r="D60" s="83" t="s">
+      <c r="D60" s="64" t="s">
         <v>65</v>
       </c>
-      <c r="E60" s="84"/>
-      <c r="F60" s="85"/>
-      <c r="G60" s="89"/>
+      <c r="E60" s="65"/>
+      <c r="F60" s="66"/>
+      <c r="G60" s="70"/>
       <c r="H60" s="38"/>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B61" s="48">
         <v>53</v>
       </c>
-      <c r="C61" s="83" t="s">
-        <v>142</v>
-      </c>
-      <c r="D61" s="83" t="s">
-        <v>115</v>
-      </c>
-      <c r="E61" s="84"/>
-      <c r="F61" s="85"/>
-      <c r="G61" s="89"/>
+      <c r="C61" s="64" t="s">
+        <v>141</v>
+      </c>
+      <c r="D61" s="64" t="s">
+        <v>114</v>
+      </c>
+      <c r="E61" s="65"/>
+      <c r="F61" s="66"/>
+      <c r="G61" s="70"/>
       <c r="H61" s="38"/>
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B62" s="48">
         <v>54</v>
       </c>
-      <c r="C62" s="83" t="s">
-        <v>143</v>
-      </c>
-      <c r="D62" s="83" t="s">
-        <v>140</v>
-      </c>
-      <c r="E62" s="84"/>
-      <c r="F62" s="85"/>
-      <c r="G62" s="89"/>
+      <c r="C62" s="64" t="s">
+        <v>142</v>
+      </c>
+      <c r="D62" s="64" t="s">
+        <v>139</v>
+      </c>
+      <c r="E62" s="65"/>
+      <c r="F62" s="66"/>
+      <c r="G62" s="70"/>
       <c r="H62" s="38"/>
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B63" s="48">
         <v>55</v>
       </c>
-      <c r="C63" s="83" t="s">
-        <v>144</v>
-      </c>
-      <c r="D63" s="83" t="s">
-        <v>140</v>
-      </c>
-      <c r="E63" s="84"/>
-      <c r="F63" s="85"/>
-      <c r="G63" s="89"/>
+      <c r="C63" s="64" t="s">
+        <v>143</v>
+      </c>
+      <c r="D63" s="64" t="s">
+        <v>139</v>
+      </c>
+      <c r="E63" s="65"/>
+      <c r="F63" s="66"/>
+      <c r="G63" s="70"/>
       <c r="H63" s="38"/>
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B64" s="48">
         <v>56</v>
       </c>
-      <c r="C64" s="83" t="s">
+      <c r="C64" s="64" t="s">
         <v>106</v>
       </c>
-      <c r="D64" s="83" t="s">
+      <c r="D64" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="E64" s="84"/>
-      <c r="F64" s="85"/>
-      <c r="G64" s="89"/>
+      <c r="E64" s="65"/>
+      <c r="F64" s="66"/>
+      <c r="G64" s="70"/>
       <c r="H64" s="38"/>
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B65" s="47">
         <v>57</v>
       </c>
-      <c r="C65" s="83" t="s">
+      <c r="C65" s="64" t="s">
         <v>63</v>
       </c>
-      <c r="D65" s="83" t="s">
+      <c r="D65" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="E65" s="84"/>
-      <c r="F65" s="85"/>
-      <c r="G65" s="89"/>
+      <c r="E65" s="65"/>
+      <c r="F65" s="66"/>
+      <c r="G65" s="70"/>
       <c r="H65" s="38"/>
     </row>
     <row r="66" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="87">
+      <c r="B66" s="68">
         <v>58</v>
       </c>
-      <c r="C66" s="88" t="s">
+      <c r="C66" s="69" t="s">
+        <v>144</v>
+      </c>
+      <c r="D66" s="69" t="s">
         <v>145</v>
-      </c>
-      <c r="D66" s="88" t="s">
-        <v>146</v>
       </c>
       <c r="E66" s="49"/>
       <c r="F66" s="50"/>

--- a/Rentabilidad/Mapeos_CON_Rentabilidad_V1.xlsx
+++ b/Rentabilidad/Mapeos_CON_Rentabilidad_V1.xlsx
@@ -202,7 +202,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="151">
   <si>
     <t>Datos Destino</t>
   </si>
@@ -643,6 +643,18 @@
   </si>
   <si>
     <t>Upsert RES_REN_CON</t>
+  </si>
+  <si>
+    <t>Asignar parametro Fecha Proceso</t>
+  </si>
+  <si>
+    <t>Poner aquí: Fecha_Proceso (Variable de ambiente)</t>
+  </si>
+  <si>
+    <t>Asignar parametro Fecha Default</t>
+  </si>
+  <si>
+    <t>Poner aquí: Fecha_Default (Variable de ambiente)</t>
   </si>
 </sst>
 </file>
@@ -971,7 +983,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="40">
+  <borders count="41">
     <border>
       <left/>
       <right/>
@@ -1470,6 +1482,15 @@
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -1560,7 +1581,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1"/>
@@ -1674,7 +1695,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1690,7 +1710,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1748,6 +1767,9 @@
     <xf numFmtId="0" fontId="0" fillId="26" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="85">
     <cellStyle name="20% - Accent1" xfId="1"/>
@@ -2228,7 +2250,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2238,8 +2260,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N44" sqref="N44"/>
+    <sheetView tabSelected="1" topLeftCell="G22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N36" sqref="N36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2276,26 +2298,26 @@
         <v>14</v>
       </c>
       <c r="C2" s="26"/>
-      <c r="D2" s="83" t="s">
+      <c r="D2" s="81" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="84"/>
-      <c r="F2" s="85"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="83"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="92" t="s">
+      <c r="H2" s="90" t="s">
         <v>98</v>
       </c>
-      <c r="I2" s="93"/>
-      <c r="J2" s="94"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="92"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="28" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="29"/>
-      <c r="D3" s="89"/>
-      <c r="E3" s="90"/>
-      <c r="F3" s="91"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="89"/>
       <c r="G3" s="10"/>
       <c r="H3" s="43"/>
       <c r="I3" s="24" t="s">
@@ -2308,11 +2330,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="86" t="s">
+      <c r="D4" s="84" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="87"/>
-      <c r="F4" s="88"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="86"/>
       <c r="G4" s="7"/>
       <c r="H4" s="44"/>
       <c r="I4" s="42" t="s">
@@ -2325,11 +2347,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="86" t="s">
+      <c r="D5" s="84" t="s">
         <v>105</v>
       </c>
-      <c r="E5" s="87"/>
-      <c r="F5" s="88"/>
+      <c r="E5" s="85"/>
+      <c r="F5" s="86"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -2341,29 +2363,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="81" t="s">
+      <c r="B7" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="82"/>
-      <c r="D7" s="82"/>
-      <c r="E7" s="82"/>
-      <c r="F7" s="82"/>
-      <c r="G7" s="82"/>
+      <c r="C7" s="80"/>
+      <c r="D7" s="80"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="80"/>
+      <c r="G7" s="80"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="78" t="s">
+      <c r="I7" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="79"/>
-      <c r="K7" s="80"/>
+      <c r="J7" s="77"/>
+      <c r="K7" s="78"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="76" t="s">
+      <c r="M7" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="77"/>
-      <c r="O7" s="77"/>
-      <c r="P7" s="77"/>
-      <c r="Q7" s="77"/>
-      <c r="R7" s="77"/>
+      <c r="N7" s="75"/>
+      <c r="O7" s="75"/>
+      <c r="P7" s="75"/>
+      <c r="Q7" s="75"/>
+      <c r="R7" s="75"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -2418,10 +2440,10 @@
       <c r="B9" s="45">
         <v>1</v>
       </c>
-      <c r="C9" s="67" t="s">
+      <c r="C9" s="66" t="s">
         <v>104</v>
       </c>
-      <c r="D9" s="67" t="s">
+      <c r="D9" s="66" t="s">
         <v>114</v>
       </c>
       <c r="E9" s="46"/>
@@ -2437,8 +2459,8 @@
       <c r="K9" s="60" t="s">
         <v>109</v>
       </c>
-      <c r="L9" s="75"/>
-      <c r="M9" s="71">
+      <c r="L9" s="94"/>
+      <c r="M9" s="70">
         <v>59</v>
       </c>
       <c r="N9" s="34" t="s">
@@ -2461,10 +2483,10 @@
       <c r="B10" s="47">
         <v>2</v>
       </c>
-      <c r="C10" s="64" t="s">
+      <c r="C10" s="63" t="s">
         <v>115</v>
       </c>
-      <c r="D10" s="64" t="s">
+      <c r="D10" s="63" t="s">
         <v>16</v>
       </c>
       <c r="E10" s="40"/>
@@ -2480,8 +2502,8 @@
       <c r="K10" s="36" t="s">
         <v>110</v>
       </c>
-      <c r="L10" s="75"/>
-      <c r="M10" s="72">
+      <c r="L10" s="94"/>
+      <c r="M10" s="71">
         <v>60</v>
       </c>
       <c r="N10" s="30" t="s">
@@ -2504,10 +2526,10 @@
       <c r="B11" s="47">
         <v>3</v>
       </c>
-      <c r="C11" s="64" t="s">
+      <c r="C11" s="63" t="s">
         <v>116</v>
       </c>
-      <c r="D11" s="64" t="s">
+      <c r="D11" s="63" t="s">
         <v>117</v>
       </c>
       <c r="E11" s="40"/>
@@ -2523,8 +2545,8 @@
       <c r="K11" s="36" t="s">
         <v>111</v>
       </c>
-      <c r="L11" s="75"/>
-      <c r="M11" s="72">
+      <c r="L11" s="94"/>
+      <c r="M11" s="71">
         <v>61</v>
       </c>
       <c r="N11" s="30" t="s">
@@ -2547,10 +2569,10 @@
       <c r="B12" s="47">
         <v>4</v>
       </c>
-      <c r="C12" s="64" t="s">
+      <c r="C12" s="63" t="s">
         <v>118</v>
       </c>
-      <c r="D12" s="64" t="s">
+      <c r="D12" s="63" t="s">
         <v>119</v>
       </c>
       <c r="E12" s="40"/>
@@ -2566,8 +2588,8 @@
       <c r="K12" s="36" t="s">
         <v>112</v>
       </c>
-      <c r="L12" s="75"/>
-      <c r="M12" s="72">
+      <c r="L12" s="94"/>
+      <c r="M12" s="71">
         <v>62</v>
       </c>
       <c r="N12" s="30" t="s">
@@ -2586,31 +2608,31 @@
         <v>113</v>
       </c>
     </row>
-    <row r="13" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B13" s="48">
         <v>5</v>
       </c>
-      <c r="C13" s="64" t="s">
+      <c r="C13" s="63" t="s">
         <v>120</v>
       </c>
-      <c r="D13" s="64" t="s">
+      <c r="D13" s="63" t="s">
         <v>121</v>
       </c>
       <c r="E13" s="40"/>
       <c r="F13" s="35"/>
       <c r="G13" s="53"/>
       <c r="H13" s="55"/>
-      <c r="I13" s="62">
+      <c r="I13" s="61">
         <v>63</v>
       </c>
-      <c r="J13" s="63" t="s">
+      <c r="J13" s="33" t="s">
         <v>107</v>
       </c>
-      <c r="K13" s="32" t="s">
+      <c r="K13" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="L13" s="38"/>
-      <c r="M13" s="72">
+      <c r="L13" s="95"/>
+      <c r="M13" s="71">
         <v>23</v>
       </c>
       <c r="N13" s="30" t="s">
@@ -2631,18 +2653,27 @@
       <c r="B14" s="48">
         <v>6</v>
       </c>
-      <c r="C14" s="64" t="s">
+      <c r="C14" s="63" t="s">
         <v>122</v>
       </c>
-      <c r="D14" s="64" t="s">
+      <c r="D14" s="63" t="s">
         <v>16</v>
       </c>
       <c r="E14" s="40"/>
       <c r="F14" s="35"/>
       <c r="G14" s="53"/>
-      <c r="H14" s="38"/>
-      <c r="L14" s="38"/>
-      <c r="M14" s="72">
+      <c r="H14" s="55"/>
+      <c r="I14" s="61">
+        <v>64</v>
+      </c>
+      <c r="J14" s="64" t="s">
+        <v>147</v>
+      </c>
+      <c r="K14" s="31" t="s">
+        <v>148</v>
+      </c>
+      <c r="L14" s="95"/>
+      <c r="M14" s="71">
         <v>24</v>
       </c>
       <c r="N14" s="30" t="s">
@@ -2659,21 +2690,30 @@
       </c>
       <c r="R14" s="41"/>
     </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="48">
         <v>7</v>
       </c>
-      <c r="C15" s="64" t="s">
+      <c r="C15" s="63" t="s">
         <v>123</v>
       </c>
-      <c r="D15" s="64" t="s">
+      <c r="D15" s="63" t="s">
         <v>119</v>
       </c>
       <c r="E15" s="40"/>
       <c r="F15" s="35"/>
       <c r="G15" s="53"/>
-      <c r="H15" s="38"/>
-      <c r="L15" s="38"/>
+      <c r="H15" s="55"/>
+      <c r="I15" s="62">
+        <v>65</v>
+      </c>
+      <c r="J15" s="49" t="s">
+        <v>149</v>
+      </c>
+      <c r="K15" s="93" t="s">
+        <v>150</v>
+      </c>
+      <c r="L15" s="95"/>
       <c r="M15" s="2">
         <v>25</v>
       </c>
@@ -2695,10 +2735,10 @@
       <c r="B16" s="48">
         <v>8</v>
       </c>
-      <c r="C16" s="64" t="s">
+      <c r="C16" s="63" t="s">
         <v>124</v>
       </c>
-      <c r="D16" s="64" t="s">
+      <c r="D16" s="63" t="s">
         <v>119</v>
       </c>
       <c r="E16" s="40"/>
@@ -2706,7 +2746,7 @@
       <c r="G16" s="53"/>
       <c r="H16" s="38"/>
       <c r="L16" s="38"/>
-      <c r="M16" s="72">
+      <c r="M16" s="71">
         <v>26</v>
       </c>
       <c r="N16" s="30" t="s">
@@ -2727,10 +2767,10 @@
       <c r="B17" s="48">
         <v>9</v>
       </c>
-      <c r="C17" s="64" t="s">
+      <c r="C17" s="63" t="s">
         <v>125</v>
       </c>
-      <c r="D17" s="64" t="s">
+      <c r="D17" s="63" t="s">
         <v>126</v>
       </c>
       <c r="E17" s="40"/>
@@ -2738,7 +2778,7 @@
       <c r="G17" s="53"/>
       <c r="H17" s="38"/>
       <c r="L17" s="38"/>
-      <c r="M17" s="73">
+      <c r="M17" s="72">
         <v>27</v>
       </c>
       <c r="N17" s="30" t="s">
@@ -2759,10 +2799,10 @@
       <c r="B18" s="48">
         <v>10</v>
       </c>
-      <c r="C18" s="64" t="s">
+      <c r="C18" s="63" t="s">
         <v>127</v>
       </c>
-      <c r="D18" s="64" t="s">
+      <c r="D18" s="63" t="s">
         <v>128</v>
       </c>
       <c r="E18" s="40"/>
@@ -2770,7 +2810,7 @@
       <c r="G18" s="53"/>
       <c r="H18" s="38"/>
       <c r="L18" s="38"/>
-      <c r="M18" s="73">
+      <c r="M18" s="72">
         <v>28</v>
       </c>
       <c r="N18" s="30" t="s">
@@ -2791,10 +2831,10 @@
       <c r="B19" s="48">
         <v>11</v>
       </c>
-      <c r="C19" s="64" t="s">
+      <c r="C19" s="63" t="s">
         <v>129</v>
       </c>
-      <c r="D19" s="64" t="s">
+      <c r="D19" s="63" t="s">
         <v>16</v>
       </c>
       <c r="E19" s="40"/>
@@ -2802,7 +2842,7 @@
       <c r="G19" s="53"/>
       <c r="H19" s="38"/>
       <c r="L19" s="38"/>
-      <c r="M19" s="73">
+      <c r="M19" s="72">
         <v>29</v>
       </c>
       <c r="N19" s="30" t="s">
@@ -2823,10 +2863,10 @@
       <c r="B20" s="48">
         <v>12</v>
       </c>
-      <c r="C20" s="64" t="s">
+      <c r="C20" s="63" t="s">
         <v>130</v>
       </c>
-      <c r="D20" s="64" t="s">
+      <c r="D20" s="63" t="s">
         <v>16</v>
       </c>
       <c r="E20" s="40"/>
@@ -2834,7 +2874,7 @@
       <c r="G20" s="53"/>
       <c r="H20" s="38"/>
       <c r="L20" s="38"/>
-      <c r="M20" s="72">
+      <c r="M20" s="71">
         <v>30</v>
       </c>
       <c r="N20" s="30" t="s">
@@ -2855,10 +2895,10 @@
       <c r="B21" s="48">
         <v>13</v>
       </c>
-      <c r="C21" s="64" t="s">
+      <c r="C21" s="63" t="s">
         <v>131</v>
       </c>
-      <c r="D21" s="64" t="s">
+      <c r="D21" s="63" t="s">
         <v>132</v>
       </c>
       <c r="E21" s="40"/>
@@ -2866,7 +2906,7 @@
       <c r="G21" s="53"/>
       <c r="H21" s="38"/>
       <c r="L21" s="38"/>
-      <c r="M21" s="73">
+      <c r="M21" s="72">
         <v>31</v>
       </c>
       <c r="N21" s="30" t="s">
@@ -2887,10 +2927,10 @@
       <c r="B22" s="47">
         <v>14</v>
       </c>
-      <c r="C22" s="64" t="s">
+      <c r="C22" s="63" t="s">
         <v>133</v>
       </c>
-      <c r="D22" s="64" t="s">
+      <c r="D22" s="63" t="s">
         <v>16</v>
       </c>
       <c r="E22" s="40"/>
@@ -2898,7 +2938,7 @@
       <c r="G22" s="53"/>
       <c r="H22" s="38"/>
       <c r="L22" s="38"/>
-      <c r="M22" s="73">
+      <c r="M22" s="72">
         <v>32</v>
       </c>
       <c r="N22" s="30" t="s">
@@ -2919,10 +2959,10 @@
       <c r="B23" s="47">
         <v>15</v>
       </c>
-      <c r="C23" s="64" t="s">
+      <c r="C23" s="63" t="s">
         <v>134</v>
       </c>
-      <c r="D23" s="64" t="s">
+      <c r="D23" s="63" t="s">
         <v>135</v>
       </c>
       <c r="E23" s="40"/>
@@ -2930,7 +2970,7 @@
       <c r="G23" s="53"/>
       <c r="H23" s="38"/>
       <c r="L23" s="38"/>
-      <c r="M23" s="73">
+      <c r="M23" s="72">
         <v>33</v>
       </c>
       <c r="N23" s="30" t="s">
@@ -2951,10 +2991,10 @@
       <c r="B24" s="47">
         <v>16</v>
       </c>
-      <c r="C24" s="64" t="s">
+      <c r="C24" s="63" t="s">
         <v>101</v>
       </c>
-      <c r="D24" s="64" t="s">
+      <c r="D24" s="63" t="s">
         <v>126</v>
       </c>
       <c r="E24" s="40"/>
@@ -2962,7 +3002,7 @@
       <c r="G24" s="53"/>
       <c r="H24" s="38"/>
       <c r="L24" s="38"/>
-      <c r="M24" s="73">
+      <c r="M24" s="72">
         <v>34</v>
       </c>
       <c r="N24" s="30" t="s">
@@ -2983,10 +3023,10 @@
       <c r="B25" s="47">
         <v>17</v>
       </c>
-      <c r="C25" s="64" t="s">
+      <c r="C25" s="63" t="s">
         <v>136</v>
       </c>
-      <c r="D25" s="64" t="s">
+      <c r="D25" s="63" t="s">
         <v>128</v>
       </c>
       <c r="E25" s="40"/>
@@ -2994,7 +3034,7 @@
       <c r="G25" s="53"/>
       <c r="H25" s="38"/>
       <c r="L25" s="38"/>
-      <c r="M25" s="73">
+      <c r="M25" s="72">
         <v>35</v>
       </c>
       <c r="N25" s="30" t="s">
@@ -3015,10 +3055,10 @@
       <c r="B26" s="48">
         <v>18</v>
       </c>
-      <c r="C26" s="64" t="s">
+      <c r="C26" s="63" t="s">
         <v>137</v>
       </c>
-      <c r="D26" s="64" t="s">
+      <c r="D26" s="63" t="s">
         <v>117</v>
       </c>
       <c r="E26" s="40"/>
@@ -3026,7 +3066,7 @@
       <c r="G26" s="53"/>
       <c r="H26" s="38"/>
       <c r="L26" s="38"/>
-      <c r="M26" s="73">
+      <c r="M26" s="72">
         <v>36</v>
       </c>
       <c r="N26" s="30" t="s">
@@ -3047,10 +3087,10 @@
       <c r="B27" s="48">
         <v>19</v>
       </c>
-      <c r="C27" s="64" t="s">
+      <c r="C27" s="63" t="s">
         <v>138</v>
       </c>
-      <c r="D27" s="64" t="s">
+      <c r="D27" s="63" t="s">
         <v>139</v>
       </c>
       <c r="E27" s="40"/>
@@ -3058,7 +3098,7 @@
       <c r="G27" s="53"/>
       <c r="H27" s="38"/>
       <c r="L27" s="38"/>
-      <c r="M27" s="73">
+      <c r="M27" s="72">
         <v>37</v>
       </c>
       <c r="N27" s="30" t="s">
@@ -3079,10 +3119,10 @@
       <c r="B28" s="48">
         <v>20</v>
       </c>
-      <c r="C28" s="64" t="s">
+      <c r="C28" s="63" t="s">
         <v>140</v>
       </c>
-      <c r="D28" s="64" t="s">
+      <c r="D28" s="63" t="s">
         <v>65</v>
       </c>
       <c r="E28" s="40"/>
@@ -3090,7 +3130,7 @@
       <c r="G28" s="53"/>
       <c r="H28" s="38"/>
       <c r="L28" s="38"/>
-      <c r="M28" s="73">
+      <c r="M28" s="72">
         <v>38</v>
       </c>
       <c r="N28" s="30" t="s">
@@ -3111,10 +3151,10 @@
       <c r="B29" s="48">
         <v>21</v>
       </c>
-      <c r="C29" s="64" t="s">
+      <c r="C29" s="63" t="s">
         <v>102</v>
       </c>
-      <c r="D29" s="64" t="s">
+      <c r="D29" s="63" t="s">
         <v>16</v>
       </c>
       <c r="E29" s="40"/>
@@ -3122,7 +3162,7 @@
       <c r="G29" s="53"/>
       <c r="H29" s="38"/>
       <c r="L29" s="38"/>
-      <c r="M29" s="73">
+      <c r="M29" s="72">
         <v>39</v>
       </c>
       <c r="N29" s="30" t="s">
@@ -3143,10 +3183,10 @@
       <c r="B30" s="48">
         <v>22</v>
       </c>
-      <c r="C30" s="64" t="s">
+      <c r="C30" s="63" t="s">
         <v>103</v>
       </c>
-      <c r="D30" s="64" t="s">
+      <c r="D30" s="63" t="s">
         <v>16</v>
       </c>
       <c r="E30" s="40"/>
@@ -3154,7 +3194,7 @@
       <c r="G30" s="53"/>
       <c r="H30" s="38"/>
       <c r="L30" s="38"/>
-      <c r="M30" s="73">
+      <c r="M30" s="72">
         <v>40</v>
       </c>
       <c r="N30" s="30" t="s">
@@ -3175,10 +3215,10 @@
       <c r="B31" s="48">
         <v>23</v>
       </c>
-      <c r="C31" s="64" t="s">
+      <c r="C31" s="63" t="s">
         <v>64</v>
       </c>
-      <c r="D31" s="64" t="s">
+      <c r="D31" s="63" t="s">
         <v>65</v>
       </c>
       <c r="E31" s="40"/>
@@ -3186,7 +3226,7 @@
       <c r="G31" s="53"/>
       <c r="H31" s="38"/>
       <c r="L31" s="38"/>
-      <c r="M31" s="73">
+      <c r="M31" s="72">
         <v>41</v>
       </c>
       <c r="N31" s="30" t="s">
@@ -3207,10 +3247,10 @@
       <c r="B32" s="48">
         <v>24</v>
       </c>
-      <c r="C32" s="64" t="s">
+      <c r="C32" s="63" t="s">
         <v>66</v>
       </c>
-      <c r="D32" s="64" t="s">
+      <c r="D32" s="63" t="s">
         <v>65</v>
       </c>
       <c r="E32" s="40"/>
@@ -3218,7 +3258,7 @@
       <c r="G32" s="53"/>
       <c r="H32" s="38"/>
       <c r="L32" s="38"/>
-      <c r="M32" s="72">
+      <c r="M32" s="71">
         <v>42</v>
       </c>
       <c r="N32" s="30" t="s">
@@ -3239,10 +3279,10 @@
       <c r="B33" s="48">
         <v>25</v>
       </c>
-      <c r="C33" s="64" t="s">
+      <c r="C33" s="63" t="s">
         <v>67</v>
       </c>
-      <c r="D33" s="64" t="s">
+      <c r="D33" s="63" t="s">
         <v>65</v>
       </c>
       <c r="E33" s="40"/>
@@ -3250,7 +3290,7 @@
       <c r="G33" s="53"/>
       <c r="H33" s="38"/>
       <c r="L33" s="38"/>
-      <c r="M33" s="72">
+      <c r="M33" s="71">
         <v>43</v>
       </c>
       <c r="N33" s="30" t="s">
@@ -3271,10 +3311,10 @@
       <c r="B34" s="48">
         <v>26</v>
       </c>
-      <c r="C34" s="64" t="s">
+      <c r="C34" s="63" t="s">
         <v>68</v>
       </c>
-      <c r="D34" s="64" t="s">
+      <c r="D34" s="63" t="s">
         <v>65</v>
       </c>
       <c r="E34" s="40"/>
@@ -3282,7 +3322,7 @@
       <c r="G34" s="53"/>
       <c r="H34" s="38"/>
       <c r="L34" s="38"/>
-      <c r="M34" s="72">
+      <c r="M34" s="71">
         <v>44</v>
       </c>
       <c r="N34" s="30" t="s">
@@ -3303,10 +3343,10 @@
       <c r="B35" s="47">
         <v>27</v>
       </c>
-      <c r="C35" s="64" t="s">
+      <c r="C35" s="63" t="s">
         <v>69</v>
       </c>
-      <c r="D35" s="64" t="s">
+      <c r="D35" s="63" t="s">
         <v>65</v>
       </c>
       <c r="E35" s="40"/>
@@ -3314,7 +3354,7 @@
       <c r="G35" s="53"/>
       <c r="H35" s="38"/>
       <c r="L35" s="38"/>
-      <c r="M35" s="72">
+      <c r="M35" s="71">
         <v>45</v>
       </c>
       <c r="N35" s="30" t="s">
@@ -3335,10 +3375,10 @@
       <c r="B36" s="47">
         <v>28</v>
       </c>
-      <c r="C36" s="64" t="s">
+      <c r="C36" s="63" t="s">
         <v>70</v>
       </c>
-      <c r="D36" s="64" t="s">
+      <c r="D36" s="63" t="s">
         <v>65</v>
       </c>
       <c r="E36" s="40"/>
@@ -3346,7 +3386,7 @@
       <c r="G36" s="53"/>
       <c r="H36" s="38"/>
       <c r="L36" s="38"/>
-      <c r="M36" s="73">
+      <c r="M36" s="72">
         <v>46</v>
       </c>
       <c r="N36" s="30" t="s">
@@ -3370,7 +3410,7 @@
       <c r="C37" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="D37" s="64" t="s">
+      <c r="D37" s="63" t="s">
         <v>65</v>
       </c>
       <c r="E37" s="40"/>
@@ -3378,7 +3418,7 @@
       <c r="G37" s="53"/>
       <c r="H37" s="38"/>
       <c r="L37" s="38"/>
-      <c r="M37" s="73">
+      <c r="M37" s="72">
         <v>47</v>
       </c>
       <c r="N37" s="30" t="s">
@@ -3399,10 +3439,10 @@
       <c r="B38" s="47">
         <v>30</v>
       </c>
-      <c r="C38" s="64" t="s">
+      <c r="C38" s="63" t="s">
         <v>72</v>
       </c>
-      <c r="D38" s="64" t="s">
+      <c r="D38" s="63" t="s">
         <v>65</v>
       </c>
       <c r="E38" s="40"/>
@@ -3410,7 +3450,7 @@
       <c r="G38" s="53"/>
       <c r="H38" s="38"/>
       <c r="L38" s="38"/>
-      <c r="M38" s="73">
+      <c r="M38" s="72">
         <v>48</v>
       </c>
       <c r="N38" s="30" t="s">
@@ -3431,10 +3471,10 @@
       <c r="B39" s="48">
         <v>31</v>
       </c>
-      <c r="C39" s="64" t="s">
+      <c r="C39" s="63" t="s">
         <v>73</v>
       </c>
-      <c r="D39" s="64" t="s">
+      <c r="D39" s="63" t="s">
         <v>65</v>
       </c>
       <c r="E39" s="40"/>
@@ -3442,7 +3482,7 @@
       <c r="G39" s="53"/>
       <c r="H39" s="38"/>
       <c r="L39" s="38"/>
-      <c r="M39" s="73">
+      <c r="M39" s="72">
         <v>49</v>
       </c>
       <c r="N39" s="30" t="s">
@@ -3463,10 +3503,10 @@
       <c r="B40" s="48">
         <v>32</v>
       </c>
-      <c r="C40" s="64" t="s">
+      <c r="C40" s="63" t="s">
         <v>74</v>
       </c>
-      <c r="D40" s="64" t="s">
+      <c r="D40" s="63" t="s">
         <v>65</v>
       </c>
       <c r="E40" s="24"/>
@@ -3474,7 +3514,7 @@
       <c r="G40" s="53"/>
       <c r="H40" s="38"/>
       <c r="L40" s="38"/>
-      <c r="M40" s="73">
+      <c r="M40" s="72">
         <v>50</v>
       </c>
       <c r="N40" s="30" t="s">
@@ -3495,10 +3535,10 @@
       <c r="B41" s="48">
         <v>33</v>
       </c>
-      <c r="C41" s="64" t="s">
+      <c r="C41" s="63" t="s">
         <v>75</v>
       </c>
-      <c r="D41" s="64" t="s">
+      <c r="D41" s="63" t="s">
         <v>65</v>
       </c>
       <c r="E41" s="24"/>
@@ -3506,7 +3546,7 @@
       <c r="G41" s="53"/>
       <c r="H41" s="38"/>
       <c r="L41" s="38"/>
-      <c r="M41" s="73">
+      <c r="M41" s="72">
         <v>51</v>
       </c>
       <c r="N41" s="30" t="s">
@@ -3527,10 +3567,10 @@
       <c r="B42" s="48">
         <v>34</v>
       </c>
-      <c r="C42" s="64" t="s">
+      <c r="C42" s="63" t="s">
         <v>76</v>
       </c>
-      <c r="D42" s="64" t="s">
+      <c r="D42" s="63" t="s">
         <v>65</v>
       </c>
       <c r="E42" s="24"/>
@@ -3538,7 +3578,7 @@
       <c r="G42" s="53"/>
       <c r="H42" s="38"/>
       <c r="L42" s="38"/>
-      <c r="M42" s="73">
+      <c r="M42" s="72">
         <v>52</v>
       </c>
       <c r="N42" s="30" t="s">
@@ -3559,10 +3599,10 @@
       <c r="B43" s="48">
         <v>35</v>
       </c>
-      <c r="C43" s="64" t="s">
+      <c r="C43" s="63" t="s">
         <v>77</v>
       </c>
-      <c r="D43" s="64" t="s">
+      <c r="D43" s="63" t="s">
         <v>65</v>
       </c>
       <c r="E43" s="24"/>
@@ -3570,8 +3610,8 @@
       <c r="G43" s="53"/>
       <c r="H43" s="38"/>
       <c r="L43" s="39"/>
-      <c r="M43" s="74">
-        <v>63</v>
+      <c r="M43" s="73">
+        <v>65</v>
       </c>
       <c r="N43" s="56" t="s">
         <v>146</v>
@@ -3591,340 +3631,340 @@
       <c r="B44" s="48">
         <v>36</v>
       </c>
-      <c r="C44" s="64" t="s">
+      <c r="C44" s="63" t="s">
         <v>78</v>
       </c>
-      <c r="D44" s="64" t="s">
+      <c r="D44" s="63" t="s">
         <v>65</v>
       </c>
-      <c r="E44" s="65"/>
+      <c r="E44" s="64"/>
       <c r="F44" s="24"/>
-      <c r="G44" s="70"/>
+      <c r="G44" s="69"/>
       <c r="H44" s="38"/>
     </row>
     <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B45" s="48">
         <v>37</v>
       </c>
-      <c r="C45" s="64" t="s">
+      <c r="C45" s="63" t="s">
         <v>79</v>
       </c>
-      <c r="D45" s="64" t="s">
+      <c r="D45" s="63" t="s">
         <v>65</v>
       </c>
-      <c r="E45" s="65"/>
-      <c r="F45" s="66"/>
-      <c r="G45" s="70"/>
+      <c r="E45" s="64"/>
+      <c r="F45" s="65"/>
+      <c r="G45" s="69"/>
       <c r="H45" s="38"/>
     </row>
     <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B46" s="48">
         <v>38</v>
       </c>
-      <c r="C46" s="64" t="s">
+      <c r="C46" s="63" t="s">
         <v>80</v>
       </c>
-      <c r="D46" s="64" t="s">
+      <c r="D46" s="63" t="s">
         <v>65</v>
       </c>
-      <c r="E46" s="65"/>
-      <c r="F46" s="66"/>
-      <c r="G46" s="70"/>
+      <c r="E46" s="64"/>
+      <c r="F46" s="65"/>
+      <c r="G46" s="69"/>
       <c r="H46" s="38"/>
     </row>
     <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B47" s="48">
         <v>39</v>
       </c>
-      <c r="C47" s="64" t="s">
+      <c r="C47" s="63" t="s">
         <v>81</v>
       </c>
-      <c r="D47" s="64" t="s">
+      <c r="D47" s="63" t="s">
         <v>65</v>
       </c>
-      <c r="E47" s="65"/>
-      <c r="F47" s="66"/>
-      <c r="G47" s="70"/>
+      <c r="E47" s="64"/>
+      <c r="F47" s="65"/>
+      <c r="G47" s="69"/>
       <c r="H47" s="38"/>
     </row>
     <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B48" s="48">
         <v>40</v>
       </c>
-      <c r="C48" s="64" t="s">
+      <c r="C48" s="63" t="s">
         <v>82</v>
       </c>
-      <c r="D48" s="64" t="s">
+      <c r="D48" s="63" t="s">
         <v>65</v>
       </c>
-      <c r="E48" s="65"/>
-      <c r="F48" s="66"/>
-      <c r="G48" s="70"/>
+      <c r="E48" s="64"/>
+      <c r="F48" s="65"/>
+      <c r="G48" s="69"/>
       <c r="H48" s="38"/>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B49" s="48">
         <v>41</v>
       </c>
-      <c r="C49" s="64" t="s">
+      <c r="C49" s="63" t="s">
         <v>83</v>
       </c>
-      <c r="D49" s="64" t="s">
+      <c r="D49" s="63" t="s">
         <v>65</v>
       </c>
-      <c r="E49" s="65"/>
-      <c r="F49" s="66"/>
-      <c r="G49" s="70"/>
+      <c r="E49" s="64"/>
+      <c r="F49" s="65"/>
+      <c r="G49" s="69"/>
       <c r="H49" s="38"/>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B50" s="47">
         <v>42</v>
       </c>
-      <c r="C50" s="64" t="s">
+      <c r="C50" s="63" t="s">
         <v>84</v>
       </c>
-      <c r="D50" s="64" t="s">
+      <c r="D50" s="63" t="s">
         <v>65</v>
       </c>
-      <c r="E50" s="65"/>
-      <c r="F50" s="66"/>
-      <c r="G50" s="70"/>
+      <c r="E50" s="64"/>
+      <c r="F50" s="65"/>
+      <c r="G50" s="69"/>
       <c r="H50" s="38"/>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B51" s="47">
         <v>43</v>
       </c>
-      <c r="C51" s="64" t="s">
+      <c r="C51" s="63" t="s">
         <v>85</v>
       </c>
-      <c r="D51" s="64" t="s">
+      <c r="D51" s="63" t="s">
         <v>65</v>
       </c>
-      <c r="E51" s="65"/>
-      <c r="F51" s="66"/>
-      <c r="G51" s="70"/>
+      <c r="E51" s="64"/>
+      <c r="F51" s="65"/>
+      <c r="G51" s="69"/>
       <c r="H51" s="38"/>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B52" s="47">
         <v>44</v>
       </c>
-      <c r="C52" s="64" t="s">
+      <c r="C52" s="63" t="s">
         <v>86</v>
       </c>
-      <c r="D52" s="64" t="s">
+      <c r="D52" s="63" t="s">
         <v>65</v>
       </c>
-      <c r="E52" s="65"/>
-      <c r="F52" s="66"/>
-      <c r="G52" s="70"/>
+      <c r="E52" s="64"/>
+      <c r="F52" s="65"/>
+      <c r="G52" s="69"/>
       <c r="H52" s="38"/>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B53" s="47">
         <v>45</v>
       </c>
-      <c r="C53" s="64" t="s">
+      <c r="C53" s="63" t="s">
         <v>87</v>
       </c>
-      <c r="D53" s="64" t="s">
+      <c r="D53" s="63" t="s">
         <v>65</v>
       </c>
-      <c r="E53" s="65"/>
-      <c r="F53" s="66"/>
-      <c r="G53" s="70"/>
+      <c r="E53" s="64"/>
+      <c r="F53" s="65"/>
+      <c r="G53" s="69"/>
       <c r="H53" s="38"/>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B54" s="48">
         <v>46</v>
       </c>
-      <c r="C54" s="64" t="s">
+      <c r="C54" s="63" t="s">
         <v>88</v>
       </c>
-      <c r="D54" s="64" t="s">
+      <c r="D54" s="63" t="s">
         <v>65</v>
       </c>
-      <c r="E54" s="65"/>
-      <c r="F54" s="66"/>
-      <c r="G54" s="70"/>
+      <c r="E54" s="64"/>
+      <c r="F54" s="65"/>
+      <c r="G54" s="69"/>
       <c r="H54" s="38"/>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B55" s="48">
         <v>47</v>
       </c>
-      <c r="C55" s="64" t="s">
+      <c r="C55" s="63" t="s">
         <v>89</v>
       </c>
-      <c r="D55" s="64" t="s">
+      <c r="D55" s="63" t="s">
         <v>65</v>
       </c>
-      <c r="E55" s="65"/>
-      <c r="F55" s="66"/>
-      <c r="G55" s="70"/>
+      <c r="E55" s="64"/>
+      <c r="F55" s="65"/>
+      <c r="G55" s="69"/>
       <c r="H55" s="38"/>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B56" s="48">
         <v>48</v>
       </c>
-      <c r="C56" s="64" t="s">
+      <c r="C56" s="63" t="s">
         <v>90</v>
       </c>
-      <c r="D56" s="64" t="s">
+      <c r="D56" s="63" t="s">
         <v>65</v>
       </c>
-      <c r="E56" s="65"/>
-      <c r="F56" s="66"/>
-      <c r="G56" s="70"/>
+      <c r="E56" s="64"/>
+      <c r="F56" s="65"/>
+      <c r="G56" s="69"/>
       <c r="H56" s="38"/>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B57" s="48">
         <v>49</v>
       </c>
-      <c r="C57" s="64" t="s">
+      <c r="C57" s="63" t="s">
         <v>91</v>
       </c>
-      <c r="D57" s="64" t="s">
+      <c r="D57" s="63" t="s">
         <v>65</v>
       </c>
-      <c r="E57" s="65"/>
-      <c r="F57" s="66"/>
-      <c r="G57" s="70"/>
+      <c r="E57" s="64"/>
+      <c r="F57" s="65"/>
+      <c r="G57" s="69"/>
       <c r="H57" s="38"/>
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B58" s="48">
         <v>50</v>
       </c>
-      <c r="C58" s="64" t="s">
+      <c r="C58" s="63" t="s">
         <v>92</v>
       </c>
-      <c r="D58" s="64" t="s">
+      <c r="D58" s="63" t="s">
         <v>65</v>
       </c>
-      <c r="E58" s="65"/>
-      <c r="F58" s="66"/>
-      <c r="G58" s="70"/>
+      <c r="E58" s="64"/>
+      <c r="F58" s="65"/>
+      <c r="G58" s="69"/>
       <c r="H58" s="38"/>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B59" s="48">
         <v>51</v>
       </c>
-      <c r="C59" s="64" t="s">
+      <c r="C59" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="D59" s="64" t="s">
+      <c r="D59" s="63" t="s">
         <v>65</v>
       </c>
-      <c r="E59" s="65"/>
-      <c r="F59" s="66"/>
-      <c r="G59" s="70"/>
+      <c r="E59" s="64"/>
+      <c r="F59" s="65"/>
+      <c r="G59" s="69"/>
       <c r="H59" s="38"/>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B60" s="48">
         <v>52</v>
       </c>
-      <c r="C60" s="64" t="s">
+      <c r="C60" s="63" t="s">
         <v>94</v>
       </c>
-      <c r="D60" s="64" t="s">
+      <c r="D60" s="63" t="s">
         <v>65</v>
       </c>
-      <c r="E60" s="65"/>
-      <c r="F60" s="66"/>
-      <c r="G60" s="70"/>
+      <c r="E60" s="64"/>
+      <c r="F60" s="65"/>
+      <c r="G60" s="69"/>
       <c r="H60" s="38"/>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B61" s="48">
         <v>53</v>
       </c>
-      <c r="C61" s="64" t="s">
+      <c r="C61" s="63" t="s">
         <v>141</v>
       </c>
-      <c r="D61" s="64" t="s">
+      <c r="D61" s="63" t="s">
         <v>114</v>
       </c>
-      <c r="E61" s="65"/>
-      <c r="F61" s="66"/>
-      <c r="G61" s="70"/>
+      <c r="E61" s="64"/>
+      <c r="F61" s="65"/>
+      <c r="G61" s="69"/>
       <c r="H61" s="38"/>
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B62" s="48">
         <v>54</v>
       </c>
-      <c r="C62" s="64" t="s">
+      <c r="C62" s="63" t="s">
         <v>142</v>
       </c>
-      <c r="D62" s="64" t="s">
+      <c r="D62" s="63" t="s">
         <v>139</v>
       </c>
-      <c r="E62" s="65"/>
-      <c r="F62" s="66"/>
-      <c r="G62" s="70"/>
+      <c r="E62" s="64"/>
+      <c r="F62" s="65"/>
+      <c r="G62" s="69"/>
       <c r="H62" s="38"/>
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B63" s="48">
         <v>55</v>
       </c>
-      <c r="C63" s="64" t="s">
+      <c r="C63" s="63" t="s">
         <v>143</v>
       </c>
-      <c r="D63" s="64" t="s">
+      <c r="D63" s="63" t="s">
         <v>139</v>
       </c>
-      <c r="E63" s="65"/>
-      <c r="F63" s="66"/>
-      <c r="G63" s="70"/>
+      <c r="E63" s="64"/>
+      <c r="F63" s="65"/>
+      <c r="G63" s="69"/>
       <c r="H63" s="38"/>
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B64" s="48">
         <v>56</v>
       </c>
-      <c r="C64" s="64" t="s">
+      <c r="C64" s="63" t="s">
         <v>106</v>
       </c>
-      <c r="D64" s="64" t="s">
+      <c r="D64" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="E64" s="65"/>
-      <c r="F64" s="66"/>
-      <c r="G64" s="70"/>
+      <c r="E64" s="64"/>
+      <c r="F64" s="65"/>
+      <c r="G64" s="69"/>
       <c r="H64" s="38"/>
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B65" s="47">
         <v>57</v>
       </c>
-      <c r="C65" s="64" t="s">
+      <c r="C65" s="63" t="s">
         <v>63</v>
       </c>
-      <c r="D65" s="64" t="s">
+      <c r="D65" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="E65" s="65"/>
-      <c r="F65" s="66"/>
-      <c r="G65" s="70"/>
+      <c r="E65" s="64"/>
+      <c r="F65" s="65"/>
+      <c r="G65" s="69"/>
       <c r="H65" s="38"/>
     </row>
     <row r="66" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="68">
+      <c r="B66" s="67">
         <v>58</v>
       </c>
-      <c r="C66" s="69" t="s">
+      <c r="C66" s="68" t="s">
         <v>144</v>
       </c>
-      <c r="D66" s="69" t="s">
+      <c r="D66" s="68" t="s">
         <v>145</v>
       </c>
       <c r="E66" s="49"/>

--- a/Rentabilidad/Mapeos_CON_Rentabilidad_V1.xlsx
+++ b/Rentabilidad/Mapeos_CON_Rentabilidad_V1.xlsx
@@ -1710,66 +1710,66 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="18" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="21" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="11" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="25" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="12" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="28" borderId="10" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="28" borderId="26" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="28" borderId="14" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="26" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="32" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="31" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="27" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="18" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="21" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="11" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="25" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="12" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="28" borderId="10" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="28" borderId="26" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="28" borderId="14" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="26" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="32" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="31" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="85">
     <cellStyle name="20% - Accent1" xfId="1"/>
@@ -2250,7 +2250,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2260,8 +2260,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N36" sqref="N36"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2298,26 +2298,26 @@
         <v>14</v>
       </c>
       <c r="C2" s="26"/>
-      <c r="D2" s="81" t="s">
+      <c r="D2" s="84" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="82"/>
-      <c r="F2" s="83"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="86"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="90" t="s">
+      <c r="H2" s="93" t="s">
         <v>98</v>
       </c>
-      <c r="I2" s="91"/>
-      <c r="J2" s="92"/>
+      <c r="I2" s="94"/>
+      <c r="J2" s="95"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="28" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="29"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="89"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="92"/>
       <c r="G3" s="10"/>
       <c r="H3" s="43"/>
       <c r="I3" s="24" t="s">
@@ -2330,11 +2330,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="84" t="s">
+      <c r="D4" s="87" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="85"/>
-      <c r="F4" s="86"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="89"/>
       <c r="G4" s="7"/>
       <c r="H4" s="44"/>
       <c r="I4" s="42" t="s">
@@ -2347,11 +2347,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="84" t="s">
+      <c r="D5" s="87" t="s">
         <v>105</v>
       </c>
-      <c r="E5" s="85"/>
-      <c r="F5" s="86"/>
+      <c r="E5" s="88"/>
+      <c r="F5" s="89"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -2363,29 +2363,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="79" t="s">
+      <c r="B7" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="80"/>
-      <c r="D7" s="80"/>
-      <c r="E7" s="80"/>
-      <c r="F7" s="80"/>
-      <c r="G7" s="80"/>
+      <c r="C7" s="83"/>
+      <c r="D7" s="83"/>
+      <c r="E7" s="83"/>
+      <c r="F7" s="83"/>
+      <c r="G7" s="83"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="76" t="s">
+      <c r="I7" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="77"/>
-      <c r="K7" s="78"/>
+      <c r="J7" s="80"/>
+      <c r="K7" s="81"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="74" t="s">
+      <c r="M7" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="75"/>
-      <c r="O7" s="75"/>
-      <c r="P7" s="75"/>
-      <c r="Q7" s="75"/>
-      <c r="R7" s="75"/>
+      <c r="N7" s="78"/>
+      <c r="O7" s="78"/>
+      <c r="P7" s="78"/>
+      <c r="Q7" s="78"/>
+      <c r="R7" s="78"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -2459,7 +2459,7 @@
       <c r="K9" s="60" t="s">
         <v>109</v>
       </c>
-      <c r="L9" s="94"/>
+      <c r="L9" s="75"/>
       <c r="M9" s="70">
         <v>59</v>
       </c>
@@ -2502,7 +2502,7 @@
       <c r="K10" s="36" t="s">
         <v>110</v>
       </c>
-      <c r="L10" s="94"/>
+      <c r="L10" s="75"/>
       <c r="M10" s="71">
         <v>60</v>
       </c>
@@ -2545,7 +2545,7 @@
       <c r="K11" s="36" t="s">
         <v>111</v>
       </c>
-      <c r="L11" s="94"/>
+      <c r="L11" s="75"/>
       <c r="M11" s="71">
         <v>61</v>
       </c>
@@ -2588,7 +2588,7 @@
       <c r="K12" s="36" t="s">
         <v>112</v>
       </c>
-      <c r="L12" s="94"/>
+      <c r="L12" s="75"/>
       <c r="M12" s="71">
         <v>62</v>
       </c>
@@ -2631,7 +2631,7 @@
       <c r="K13" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="L13" s="95"/>
+      <c r="L13" s="76"/>
       <c r="M13" s="71">
         <v>23</v>
       </c>
@@ -2672,7 +2672,7 @@
       <c r="K14" s="31" t="s">
         <v>148</v>
       </c>
-      <c r="L14" s="95"/>
+      <c r="L14" s="76"/>
       <c r="M14" s="71">
         <v>24</v>
       </c>
@@ -2710,10 +2710,10 @@
       <c r="J15" s="49" t="s">
         <v>149</v>
       </c>
-      <c r="K15" s="93" t="s">
+      <c r="K15" s="74" t="s">
         <v>150</v>
       </c>
-      <c r="L15" s="95"/>
+      <c r="L15" s="76"/>
       <c r="M15" s="2">
         <v>25</v>
       </c>

--- a/Rentabilidad/Mapeos_CON_Rentabilidad_V1.xlsx
+++ b/Rentabilidad/Mapeos_CON_Rentabilidad_V1.xlsx
@@ -202,7 +202,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="152">
   <si>
     <t>Datos Destino</t>
   </si>
@@ -504,9 +504,6 @@
     <t>Cargados por otra fuente</t>
   </si>
   <si>
-    <t>Fecha de fin para cierre de registros</t>
-  </si>
-  <si>
     <t>AA_NUM_CUENTA</t>
   </si>
   <si>
@@ -655,6 +652,12 @@
   </si>
   <si>
     <t>Poner aquí: Fecha_Default (Variable de ambiente)</t>
+  </si>
+  <si>
+    <t>Fecha de fin del registro</t>
+  </si>
+  <si>
+    <t>Fecha de inicio del registro</t>
   </si>
 </sst>
 </file>
@@ -823,7 +826,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="31">
+  <fills count="32">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -982,6 +985,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="41">
     <border>
@@ -1581,7 +1590,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1"/>
@@ -1648,7 +1657,6 @@
     <xf numFmtId="0" fontId="3" fillId="28" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1658,13 +1666,6 @@
     <xf numFmtId="0" fontId="0" fillId="27" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="13" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="33" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1770,6 +1771,17 @@
     <xf numFmtId="0" fontId="0" fillId="26" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="10" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="10" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="85">
     <cellStyle name="20% - Accent1" xfId="1"/>
@@ -2250,7 +2262,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2260,8 +2272,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11:R11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2298,61 +2310,66 @@
         <v>14</v>
       </c>
       <c r="C2" s="26"/>
-      <c r="D2" s="84" t="s">
+      <c r="D2" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="85"/>
-      <c r="F2" s="86"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="93" t="s">
+      <c r="H2" s="89" t="s">
         <v>98</v>
       </c>
-      <c r="I2" s="94"/>
-      <c r="J2" s="95"/>
+      <c r="I2" s="90"/>
+      <c r="J2" s="91"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="28" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="29"/>
-      <c r="D3" s="90"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="92"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="88"/>
       <c r="G3" s="10"/>
-      <c r="H3" s="43"/>
+      <c r="H3" s="92"/>
       <c r="I3" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="J3" s="31"/>
-    </row>
-    <row r="4" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="60"/>
+    </row>
+    <row r="4" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B4" s="27" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="87" t="s">
+      <c r="D4" s="83" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="88"/>
-      <c r="F4" s="89"/>
+      <c r="E4" s="84"/>
+      <c r="F4" s="85"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="J4" s="32"/>
+      <c r="H4" s="93"/>
+      <c r="I4" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="J4" s="60"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B5" s="27" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="87" t="s">
-        <v>105</v>
-      </c>
-      <c r="E5" s="88"/>
-      <c r="F5" s="89"/>
+      <c r="D5" s="83" t="s">
+        <v>104</v>
+      </c>
+      <c r="E5" s="84"/>
+      <c r="F5" s="85"/>
       <c r="G5" s="7"/>
+      <c r="H5" s="94"/>
+      <c r="I5" s="60" t="s">
+        <v>151</v>
+      </c>
+      <c r="J5" s="60"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="9"/>
@@ -2363,29 +2380,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="82" t="s">
+      <c r="B7" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="83"/>
-      <c r="D7" s="83"/>
-      <c r="E7" s="83"/>
-      <c r="F7" s="83"/>
-      <c r="G7" s="83"/>
+      <c r="C7" s="79"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="79"/>
+      <c r="G7" s="79"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="79" t="s">
+      <c r="I7" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="80"/>
-      <c r="K7" s="81"/>
+      <c r="J7" s="76"/>
+      <c r="K7" s="77"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="77" t="s">
+      <c r="M7" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="78"/>
-      <c r="O7" s="78"/>
-      <c r="P7" s="78"/>
-      <c r="Q7" s="78"/>
-      <c r="R7" s="78"/>
+      <c r="N7" s="74"/>
+      <c r="O7" s="74"/>
+      <c r="P7" s="74"/>
+      <c r="Q7" s="74"/>
+      <c r="R7" s="74"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -2437,34 +2454,34 @@
       </c>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B9" s="45">
+      <c r="B9" s="41">
         <v>1</v>
       </c>
-      <c r="C9" s="66" t="s">
-        <v>104</v>
-      </c>
-      <c r="D9" s="66" t="s">
-        <v>114</v>
-      </c>
-      <c r="E9" s="46"/>
-      <c r="F9" s="46"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="55"/>
-      <c r="I9" s="59">
+      <c r="C9" s="62" t="s">
+        <v>103</v>
+      </c>
+      <c r="D9" s="62" t="s">
+        <v>113</v>
+      </c>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="55">
         <v>59</v>
       </c>
       <c r="J9" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="K9" s="60" t="s">
-        <v>109</v>
-      </c>
-      <c r="L9" s="75"/>
-      <c r="M9" s="70">
+      <c r="K9" s="56" t="s">
+        <v>108</v>
+      </c>
+      <c r="L9" s="71"/>
+      <c r="M9" s="66">
         <v>59</v>
       </c>
-      <c r="N9" s="34" t="s">
-        <v>146</v>
+      <c r="N9" s="33" t="s">
+        <v>145</v>
       </c>
       <c r="O9" s="23" t="s">
         <v>29</v>
@@ -2475,1502 +2492,1502 @@
       <c r="Q9" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="R9" s="37" t="s">
-        <v>113</v>
+      <c r="R9" s="36" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B10" s="47">
+      <c r="B10" s="43">
         <v>2</v>
       </c>
-      <c r="C10" s="63" t="s">
+      <c r="C10" s="59" t="s">
+        <v>114</v>
+      </c>
+      <c r="D10" s="59" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="39"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="48"/>
+      <c r="H10" s="51"/>
+      <c r="I10" s="57">
+        <v>60</v>
+      </c>
+      <c r="J10" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="K10" s="35" t="s">
+        <v>109</v>
+      </c>
+      <c r="L10" s="71"/>
+      <c r="M10" s="67">
+        <v>60</v>
+      </c>
+      <c r="N10" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="O10" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="P10" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q10" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="R10" s="40" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B11" s="43">
+        <v>3</v>
+      </c>
+      <c r="C11" s="59" t="s">
         <v>115</v>
       </c>
-      <c r="D10" s="63" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="40"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="52"/>
-      <c r="H10" s="55"/>
-      <c r="I10" s="61">
-        <v>60</v>
-      </c>
-      <c r="J10" s="33" t="s">
-        <v>95</v>
-      </c>
-      <c r="K10" s="36" t="s">
-        <v>110</v>
-      </c>
-      <c r="L10" s="75"/>
-      <c r="M10" s="71">
-        <v>60</v>
-      </c>
-      <c r="N10" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="O10" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="P10" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q10" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="R10" s="41" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B11" s="47">
-        <v>3</v>
-      </c>
-      <c r="C11" s="63" t="s">
+      <c r="D11" s="59" t="s">
         <v>116</v>
       </c>
-      <c r="D11" s="63" t="s">
-        <v>117</v>
-      </c>
-      <c r="E11" s="40"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="52"/>
-      <c r="H11" s="55"/>
-      <c r="I11" s="61">
+      <c r="E11" s="39"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="48"/>
+      <c r="H11" s="51"/>
+      <c r="I11" s="57">
         <v>61</v>
       </c>
       <c r="J11" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="K11" s="36" t="s">
-        <v>111</v>
-      </c>
-      <c r="L11" s="75"/>
-      <c r="M11" s="71">
+      <c r="K11" s="35" t="s">
+        <v>110</v>
+      </c>
+      <c r="L11" s="71"/>
+      <c r="M11" s="95">
         <v>61</v>
       </c>
-      <c r="N11" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="O11" s="35" t="s">
+      <c r="N11" s="96" t="s">
+        <v>145</v>
+      </c>
+      <c r="O11" s="97" t="s">
         <v>27</v>
       </c>
-      <c r="P11" s="35" t="s">
+      <c r="P11" s="97" t="s">
         <v>18</v>
       </c>
-      <c r="Q11" s="35" t="s">
+      <c r="Q11" s="97" t="s">
         <v>17</v>
       </c>
-      <c r="R11" s="41" t="s">
-        <v>113</v>
+      <c r="R11" s="98" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B12" s="47">
+      <c r="B12" s="43">
         <v>4</v>
       </c>
-      <c r="C12" s="63" t="s">
+      <c r="C12" s="59" t="s">
+        <v>117</v>
+      </c>
+      <c r="D12" s="59" t="s">
         <v>118</v>
       </c>
-      <c r="D12" s="63" t="s">
-        <v>119</v>
-      </c>
-      <c r="E12" s="40"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="52"/>
-      <c r="H12" s="55"/>
-      <c r="I12" s="61">
+      <c r="E12" s="39"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="48"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="57">
         <v>62</v>
       </c>
       <c r="J12" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="K12" s="36" t="s">
+      <c r="K12" s="35" t="s">
+        <v>111</v>
+      </c>
+      <c r="L12" s="71"/>
+      <c r="M12" s="67">
+        <v>62</v>
+      </c>
+      <c r="N12" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="O12" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="P12" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q12" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="R12" s="40" t="s">
         <v>112</v>
       </c>
-      <c r="L12" s="75"/>
-      <c r="M12" s="71">
-        <v>62</v>
-      </c>
-      <c r="N12" s="30" t="s">
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B13" s="44">
+        <v>5</v>
+      </c>
+      <c r="C13" s="59" t="s">
+        <v>119</v>
+      </c>
+      <c r="D13" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="E13" s="39"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="57">
+        <v>63</v>
+      </c>
+      <c r="J13" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="K13" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="L13" s="72"/>
+      <c r="M13" s="67">
+        <v>23</v>
+      </c>
+      <c r="N13" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="O13" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="P13" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q13" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="R13" s="40"/>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B14" s="44">
+        <v>6</v>
+      </c>
+      <c r="C14" s="59" t="s">
+        <v>121</v>
+      </c>
+      <c r="D14" s="59" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="39"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="51"/>
+      <c r="I14" s="57">
+        <v>64</v>
+      </c>
+      <c r="J14" s="60" t="s">
         <v>146</v>
       </c>
-      <c r="O12" s="35" t="s">
-        <v>31</v>
-      </c>
-      <c r="P12" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q12" s="35" t="s">
+      <c r="K14" s="31" t="s">
+        <v>147</v>
+      </c>
+      <c r="L14" s="72"/>
+      <c r="M14" s="67">
+        <v>24</v>
+      </c>
+      <c r="N14" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="O14" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="P14" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q14" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="R12" s="41" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B13" s="48">
-        <v>5</v>
-      </c>
-      <c r="C13" s="63" t="s">
-        <v>120</v>
-      </c>
-      <c r="D13" s="63" t="s">
-        <v>121</v>
-      </c>
-      <c r="E13" s="40"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="53"/>
-      <c r="H13" s="55"/>
-      <c r="I13" s="61">
-        <v>63</v>
-      </c>
-      <c r="J13" s="33" t="s">
-        <v>107</v>
-      </c>
-      <c r="K13" s="31" t="s">
-        <v>108</v>
-      </c>
-      <c r="L13" s="76"/>
-      <c r="M13" s="71">
-        <v>23</v>
-      </c>
-      <c r="N13" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="O13" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="P13" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q13" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="R13" s="41"/>
-    </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B14" s="48">
-        <v>6</v>
-      </c>
-      <c r="C14" s="63" t="s">
+      <c r="R14" s="40"/>
+    </row>
+    <row r="15" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="44">
+        <v>7</v>
+      </c>
+      <c r="C15" s="59" t="s">
         <v>122</v>
       </c>
-      <c r="D14" s="63" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" s="40"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="53"/>
-      <c r="H14" s="55"/>
-      <c r="I14" s="61">
-        <v>64</v>
-      </c>
-      <c r="J14" s="64" t="s">
-        <v>147</v>
-      </c>
-      <c r="K14" s="31" t="s">
+      <c r="D15" s="59" t="s">
+        <v>118</v>
+      </c>
+      <c r="E15" s="39"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="49"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="58">
+        <v>65</v>
+      </c>
+      <c r="J15" s="45" t="s">
         <v>148</v>
       </c>
-      <c r="L14" s="76"/>
-      <c r="M14" s="71">
-        <v>24</v>
-      </c>
-      <c r="N14" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="O14" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="P14" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q14" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="R14" s="41"/>
-    </row>
-    <row r="15" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="48">
-        <v>7</v>
-      </c>
-      <c r="C15" s="63" t="s">
-        <v>123</v>
-      </c>
-      <c r="D15" s="63" t="s">
-        <v>119</v>
-      </c>
-      <c r="E15" s="40"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="53"/>
-      <c r="H15" s="55"/>
-      <c r="I15" s="62">
-        <v>65</v>
-      </c>
-      <c r="J15" s="49" t="s">
+      <c r="K15" s="70" t="s">
         <v>149</v>
       </c>
-      <c r="K15" s="74" t="s">
-        <v>150</v>
-      </c>
-      <c r="L15" s="76"/>
+      <c r="L15" s="72"/>
       <c r="M15" s="2">
         <v>25</v>
       </c>
       <c r="N15" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="O15" s="35" t="s">
+        <v>145</v>
+      </c>
+      <c r="O15" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="P15" s="40" t="s">
+      <c r="P15" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="Q15" s="35" t="s">
+      <c r="Q15" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="R15" s="41"/>
+      <c r="R15" s="40"/>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B16" s="48">
+      <c r="B16" s="44">
         <v>8</v>
       </c>
-      <c r="C16" s="63" t="s">
+      <c r="C16" s="59" t="s">
+        <v>123</v>
+      </c>
+      <c r="D16" s="59" t="s">
+        <v>118</v>
+      </c>
+      <c r="E16" s="39"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="49"/>
+      <c r="H16" s="37"/>
+      <c r="L16" s="37"/>
+      <c r="M16" s="67">
+        <v>26</v>
+      </c>
+      <c r="N16" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="O16" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="P16" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q16" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="R16" s="40"/>
+    </row>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B17" s="44">
+        <v>9</v>
+      </c>
+      <c r="C17" s="59" t="s">
         <v>124</v>
       </c>
-      <c r="D16" s="63" t="s">
-        <v>119</v>
-      </c>
-      <c r="E16" s="40"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="53"/>
-      <c r="H16" s="38"/>
-      <c r="L16" s="38"/>
-      <c r="M16" s="71">
+      <c r="D17" s="59" t="s">
+        <v>125</v>
+      </c>
+      <c r="E17" s="39"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="37"/>
+      <c r="L17" s="37"/>
+      <c r="M17" s="68">
+        <v>27</v>
+      </c>
+      <c r="N17" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="O17" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="P17" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q17" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="R17" s="40"/>
+    </row>
+    <row r="18" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B18" s="44">
+        <v>10</v>
+      </c>
+      <c r="C18" s="59" t="s">
+        <v>126</v>
+      </c>
+      <c r="D18" s="59" t="s">
+        <v>127</v>
+      </c>
+      <c r="E18" s="39"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="37"/>
+      <c r="L18" s="37"/>
+      <c r="M18" s="68">
+        <v>28</v>
+      </c>
+      <c r="N18" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="O18" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="P18" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q18" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="R18" s="40"/>
+    </row>
+    <row r="19" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B19" s="44">
+        <v>11</v>
+      </c>
+      <c r="C19" s="59" t="s">
+        <v>128</v>
+      </c>
+      <c r="D19" s="59" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="39"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="49"/>
+      <c r="H19" s="37"/>
+      <c r="L19" s="37"/>
+      <c r="M19" s="68">
+        <v>29</v>
+      </c>
+      <c r="N19" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="O19" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="P19" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q19" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="R19" s="40"/>
+    </row>
+    <row r="20" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B20" s="44">
+        <v>12</v>
+      </c>
+      <c r="C20" s="59" t="s">
+        <v>129</v>
+      </c>
+      <c r="D20" s="59" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="39"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="49"/>
+      <c r="H20" s="37"/>
+      <c r="L20" s="37"/>
+      <c r="M20" s="67">
+        <v>30</v>
+      </c>
+      <c r="N20" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="O20" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="P20" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q20" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="R20" s="35"/>
+    </row>
+    <row r="21" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B21" s="44">
+        <v>13</v>
+      </c>
+      <c r="C21" s="59" t="s">
+        <v>130</v>
+      </c>
+      <c r="D21" s="59" t="s">
+        <v>131</v>
+      </c>
+      <c r="E21" s="39"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="49"/>
+      <c r="H21" s="37"/>
+      <c r="L21" s="37"/>
+      <c r="M21" s="68">
+        <v>31</v>
+      </c>
+      <c r="N21" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="O21" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="P21" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q21" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="R21" s="35"/>
+    </row>
+    <row r="22" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B22" s="43">
+        <v>14</v>
+      </c>
+      <c r="C22" s="59" t="s">
+        <v>132</v>
+      </c>
+      <c r="D22" s="59" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" s="39"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="49"/>
+      <c r="H22" s="37"/>
+      <c r="L22" s="37"/>
+      <c r="M22" s="68">
+        <v>32</v>
+      </c>
+      <c r="N22" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="O22" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="P22" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q22" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="R22" s="35"/>
+    </row>
+    <row r="23" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B23" s="43">
+        <v>15</v>
+      </c>
+      <c r="C23" s="59" t="s">
+        <v>133</v>
+      </c>
+      <c r="D23" s="59" t="s">
+        <v>134</v>
+      </c>
+      <c r="E23" s="39"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="49"/>
+      <c r="H23" s="37"/>
+      <c r="L23" s="37"/>
+      <c r="M23" s="68">
+        <v>33</v>
+      </c>
+      <c r="N23" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="O23" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="P23" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q23" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="R23" s="35"/>
+    </row>
+    <row r="24" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B24" s="43">
+        <v>16</v>
+      </c>
+      <c r="C24" s="59" t="s">
+        <v>100</v>
+      </c>
+      <c r="D24" s="59" t="s">
+        <v>125</v>
+      </c>
+      <c r="E24" s="39"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="49"/>
+      <c r="H24" s="37"/>
+      <c r="L24" s="37"/>
+      <c r="M24" s="68">
+        <v>34</v>
+      </c>
+      <c r="N24" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="O24" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="P24" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q24" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="R24" s="35"/>
+    </row>
+    <row r="25" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B25" s="43">
+        <v>17</v>
+      </c>
+      <c r="C25" s="59" t="s">
+        <v>135</v>
+      </c>
+      <c r="D25" s="59" t="s">
+        <v>127</v>
+      </c>
+      <c r="E25" s="39"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="49"/>
+      <c r="H25" s="37"/>
+      <c r="L25" s="37"/>
+      <c r="M25" s="68">
+        <v>35</v>
+      </c>
+      <c r="N25" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="O25" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="P25" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q25" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="R25" s="35"/>
+    </row>
+    <row r="26" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B26" s="44">
+        <v>18</v>
+      </c>
+      <c r="C26" s="59" t="s">
+        <v>136</v>
+      </c>
+      <c r="D26" s="59" t="s">
+        <v>116</v>
+      </c>
+      <c r="E26" s="39"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="49"/>
+      <c r="H26" s="37"/>
+      <c r="L26" s="37"/>
+      <c r="M26" s="68">
+        <v>36</v>
+      </c>
+      <c r="N26" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="O26" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="P26" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q26" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="R26" s="35"/>
+    </row>
+    <row r="27" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B27" s="44">
+        <v>19</v>
+      </c>
+      <c r="C27" s="59" t="s">
+        <v>137</v>
+      </c>
+      <c r="D27" s="59" t="s">
+        <v>138</v>
+      </c>
+      <c r="E27" s="39"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="49"/>
+      <c r="H27" s="37"/>
+      <c r="L27" s="37"/>
+      <c r="M27" s="68">
+        <v>37</v>
+      </c>
+      <c r="N27" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="O27" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="P27" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q27" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="R27" s="35"/>
+    </row>
+    <row r="28" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B28" s="44">
+        <v>20</v>
+      </c>
+      <c r="C28" s="59" t="s">
+        <v>139</v>
+      </c>
+      <c r="D28" s="59" t="s">
+        <v>65</v>
+      </c>
+      <c r="E28" s="39"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="49"/>
+      <c r="H28" s="37"/>
+      <c r="L28" s="37"/>
+      <c r="M28" s="68">
+        <v>38</v>
+      </c>
+      <c r="N28" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="O28" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="P28" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q28" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="R28" s="35"/>
+    </row>
+    <row r="29" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B29" s="44">
+        <v>21</v>
+      </c>
+      <c r="C29" s="59" t="s">
+        <v>101</v>
+      </c>
+      <c r="D29" s="59" t="s">
+        <v>16</v>
+      </c>
+      <c r="E29" s="39"/>
+      <c r="F29" s="34"/>
+      <c r="G29" s="49"/>
+      <c r="H29" s="37"/>
+      <c r="L29" s="37"/>
+      <c r="M29" s="68">
+        <v>39</v>
+      </c>
+      <c r="N29" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="O29" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="P29" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q29" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="R29" s="35"/>
+    </row>
+    <row r="30" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B30" s="44">
+        <v>22</v>
+      </c>
+      <c r="C30" s="59" t="s">
+        <v>102</v>
+      </c>
+      <c r="D30" s="59" t="s">
+        <v>16</v>
+      </c>
+      <c r="E30" s="39"/>
+      <c r="F30" s="34"/>
+      <c r="G30" s="49"/>
+      <c r="H30" s="37"/>
+      <c r="L30" s="37"/>
+      <c r="M30" s="68">
+        <v>40</v>
+      </c>
+      <c r="N30" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="O30" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="P30" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q30" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="R30" s="35"/>
+    </row>
+    <row r="31" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B31" s="44">
+        <v>23</v>
+      </c>
+      <c r="C31" s="59" t="s">
+        <v>64</v>
+      </c>
+      <c r="D31" s="59" t="s">
+        <v>65</v>
+      </c>
+      <c r="E31" s="39"/>
+      <c r="F31" s="34"/>
+      <c r="G31" s="49"/>
+      <c r="H31" s="37"/>
+      <c r="L31" s="37"/>
+      <c r="M31" s="68">
+        <v>41</v>
+      </c>
+      <c r="N31" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="O31" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="P31" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q31" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="R31" s="35"/>
+    </row>
+    <row r="32" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B32" s="44">
+        <v>24</v>
+      </c>
+      <c r="C32" s="59" t="s">
+        <v>66</v>
+      </c>
+      <c r="D32" s="59" t="s">
+        <v>65</v>
+      </c>
+      <c r="E32" s="39"/>
+      <c r="F32" s="34"/>
+      <c r="G32" s="49"/>
+      <c r="H32" s="37"/>
+      <c r="L32" s="37"/>
+      <c r="M32" s="67">
+        <v>42</v>
+      </c>
+      <c r="N32" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="O32" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="P32" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q32" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="R32" s="35"/>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B33" s="44">
+        <v>25</v>
+      </c>
+      <c r="C33" s="59" t="s">
+        <v>67</v>
+      </c>
+      <c r="D33" s="59" t="s">
+        <v>65</v>
+      </c>
+      <c r="E33" s="39"/>
+      <c r="F33" s="34"/>
+      <c r="G33" s="49"/>
+      <c r="H33" s="37"/>
+      <c r="L33" s="37"/>
+      <c r="M33" s="67">
+        <v>43</v>
+      </c>
+      <c r="N33" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="O33" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="P33" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q33" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="R33" s="35"/>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B34" s="44">
         <v>26</v>
       </c>
-      <c r="N16" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="O16" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="P16" s="40" t="s">
+      <c r="C34" s="59" t="s">
+        <v>68</v>
+      </c>
+      <c r="D34" s="59" t="s">
+        <v>65</v>
+      </c>
+      <c r="E34" s="39"/>
+      <c r="F34" s="34"/>
+      <c r="G34" s="49"/>
+      <c r="H34" s="37"/>
+      <c r="L34" s="37"/>
+      <c r="M34" s="67">
+        <v>44</v>
+      </c>
+      <c r="N34" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="O34" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="P34" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="Q16" s="35" t="s">
+      <c r="Q34" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="R16" s="41"/>
-    </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B17" s="48">
-        <v>9</v>
-      </c>
-      <c r="C17" s="63" t="s">
-        <v>125</v>
-      </c>
-      <c r="D17" s="63" t="s">
-        <v>126</v>
-      </c>
-      <c r="E17" s="40"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="53"/>
-      <c r="H17" s="38"/>
-      <c r="L17" s="38"/>
-      <c r="M17" s="72">
+      <c r="R34" s="35"/>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B35" s="43">
         <v>27</v>
       </c>
-      <c r="N17" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="O17" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="P17" s="40" t="s">
+      <c r="C35" s="59" t="s">
+        <v>69</v>
+      </c>
+      <c r="D35" s="59" t="s">
+        <v>65</v>
+      </c>
+      <c r="E35" s="39"/>
+      <c r="F35" s="34"/>
+      <c r="G35" s="49"/>
+      <c r="H35" s="37"/>
+      <c r="L35" s="37"/>
+      <c r="M35" s="67">
+        <v>45</v>
+      </c>
+      <c r="N35" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="O35" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="P35" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="Q17" s="35" t="s">
+      <c r="Q35" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="R17" s="41"/>
-    </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B18" s="48">
-        <v>10</v>
-      </c>
-      <c r="C18" s="63" t="s">
-        <v>127</v>
-      </c>
-      <c r="D18" s="63" t="s">
-        <v>128</v>
-      </c>
-      <c r="E18" s="40"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="53"/>
-      <c r="H18" s="38"/>
-      <c r="L18" s="38"/>
-      <c r="M18" s="72">
+      <c r="R35" s="35"/>
+    </row>
+    <row r="36" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B36" s="43">
         <v>28</v>
       </c>
-      <c r="N18" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="O18" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="P18" s="40" t="s">
+      <c r="C36" s="59" t="s">
+        <v>70</v>
+      </c>
+      <c r="D36" s="59" t="s">
+        <v>65</v>
+      </c>
+      <c r="E36" s="39"/>
+      <c r="F36" s="34"/>
+      <c r="G36" s="49"/>
+      <c r="H36" s="37"/>
+      <c r="L36" s="37"/>
+      <c r="M36" s="68">
+        <v>46</v>
+      </c>
+      <c r="N36" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="O36" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="P36" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="Q18" s="35" t="s">
+      <c r="Q36" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="R18" s="41"/>
-    </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B19" s="48">
-        <v>11</v>
-      </c>
-      <c r="C19" s="63" t="s">
-        <v>129</v>
-      </c>
-      <c r="D19" s="63" t="s">
-        <v>16</v>
-      </c>
-      <c r="E19" s="40"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="53"/>
-      <c r="H19" s="38"/>
-      <c r="L19" s="38"/>
-      <c r="M19" s="72">
+      <c r="R36" s="35"/>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B37" s="43">
         <v>29</v>
       </c>
-      <c r="N19" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="O19" s="35" t="s">
-        <v>39</v>
-      </c>
-      <c r="P19" s="40" t="s">
+      <c r="C37" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="D37" s="59" t="s">
+        <v>65</v>
+      </c>
+      <c r="E37" s="39"/>
+      <c r="F37" s="34"/>
+      <c r="G37" s="49"/>
+      <c r="H37" s="37"/>
+      <c r="L37" s="37"/>
+      <c r="M37" s="68">
+        <v>47</v>
+      </c>
+      <c r="N37" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="O37" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="P37" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="Q19" s="35" t="s">
+      <c r="Q37" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="R19" s="41"/>
-    </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B20" s="48">
-        <v>12</v>
-      </c>
-      <c r="C20" s="63" t="s">
-        <v>130</v>
-      </c>
-      <c r="D20" s="63" t="s">
-        <v>16</v>
-      </c>
-      <c r="E20" s="40"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="53"/>
-      <c r="H20" s="38"/>
-      <c r="L20" s="38"/>
-      <c r="M20" s="71">
+      <c r="R37" s="35"/>
+    </row>
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B38" s="43">
         <v>30</v>
       </c>
-      <c r="N20" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="O20" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="P20" s="40" t="s">
+      <c r="C38" s="59" t="s">
+        <v>72</v>
+      </c>
+      <c r="D38" s="59" t="s">
+        <v>65</v>
+      </c>
+      <c r="E38" s="39"/>
+      <c r="F38" s="34"/>
+      <c r="G38" s="49"/>
+      <c r="H38" s="37"/>
+      <c r="L38" s="37"/>
+      <c r="M38" s="68">
+        <v>48</v>
+      </c>
+      <c r="N38" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="O38" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="P38" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="Q20" s="35" t="s">
+      <c r="Q38" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="R20" s="36"/>
-    </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B21" s="48">
-        <v>13</v>
-      </c>
-      <c r="C21" s="63" t="s">
-        <v>131</v>
-      </c>
-      <c r="D21" s="63" t="s">
-        <v>132</v>
-      </c>
-      <c r="E21" s="40"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="53"/>
-      <c r="H21" s="38"/>
-      <c r="L21" s="38"/>
-      <c r="M21" s="72">
+      <c r="R38" s="35"/>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B39" s="44">
         <v>31</v>
       </c>
-      <c r="N21" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="O21" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="P21" s="40" t="s">
+      <c r="C39" s="59" t="s">
+        <v>73</v>
+      </c>
+      <c r="D39" s="59" t="s">
+        <v>65</v>
+      </c>
+      <c r="E39" s="39"/>
+      <c r="F39" s="34"/>
+      <c r="G39" s="49"/>
+      <c r="H39" s="37"/>
+      <c r="L39" s="37"/>
+      <c r="M39" s="68">
+        <v>49</v>
+      </c>
+      <c r="N39" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="O39" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="P39" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="Q21" s="35" t="s">
+      <c r="Q39" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="R21" s="36"/>
-    </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B22" s="47">
-        <v>14</v>
-      </c>
-      <c r="C22" s="63" t="s">
-        <v>133</v>
-      </c>
-      <c r="D22" s="63" t="s">
-        <v>16</v>
-      </c>
-      <c r="E22" s="40"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="53"/>
-      <c r="H22" s="38"/>
-      <c r="L22" s="38"/>
-      <c r="M22" s="72">
+      <c r="R39" s="35"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B40" s="44">
         <v>32</v>
       </c>
-      <c r="N22" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="O22" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="P22" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q22" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="R22" s="36"/>
-    </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B23" s="47">
-        <v>15</v>
-      </c>
-      <c r="C23" s="63" t="s">
-        <v>134</v>
-      </c>
-      <c r="D23" s="63" t="s">
-        <v>135</v>
-      </c>
-      <c r="E23" s="40"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="53"/>
-      <c r="H23" s="38"/>
-      <c r="L23" s="38"/>
-      <c r="M23" s="72">
-        <v>33</v>
-      </c>
-      <c r="N23" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="O23" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="P23" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q23" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="R23" s="36"/>
-    </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B24" s="47">
-        <v>16</v>
-      </c>
-      <c r="C24" s="63" t="s">
-        <v>101</v>
-      </c>
-      <c r="D24" s="63" t="s">
-        <v>126</v>
-      </c>
-      <c r="E24" s="40"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="53"/>
-      <c r="H24" s="38"/>
-      <c r="L24" s="38"/>
-      <c r="M24" s="72">
-        <v>34</v>
-      </c>
-      <c r="N24" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="O24" s="35" t="s">
-        <v>44</v>
-      </c>
-      <c r="P24" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q24" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="R24" s="36"/>
-    </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B25" s="47">
-        <v>17</v>
-      </c>
-      <c r="C25" s="63" t="s">
-        <v>136</v>
-      </c>
-      <c r="D25" s="63" t="s">
-        <v>128</v>
-      </c>
-      <c r="E25" s="40"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="53"/>
-      <c r="H25" s="38"/>
-      <c r="L25" s="38"/>
-      <c r="M25" s="72">
-        <v>35</v>
-      </c>
-      <c r="N25" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="O25" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="P25" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q25" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="R25" s="36"/>
-    </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B26" s="48">
-        <v>18</v>
-      </c>
-      <c r="C26" s="63" t="s">
-        <v>137</v>
-      </c>
-      <c r="D26" s="63" t="s">
-        <v>117</v>
-      </c>
-      <c r="E26" s="40"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="53"/>
-      <c r="H26" s="38"/>
-      <c r="L26" s="38"/>
-      <c r="M26" s="72">
-        <v>36</v>
-      </c>
-      <c r="N26" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="O26" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="P26" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q26" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="R26" s="36"/>
-    </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B27" s="48">
-        <v>19</v>
-      </c>
-      <c r="C27" s="63" t="s">
-        <v>138</v>
-      </c>
-      <c r="D27" s="63" t="s">
-        <v>139</v>
-      </c>
-      <c r="E27" s="40"/>
-      <c r="F27" s="35"/>
-      <c r="G27" s="53"/>
-      <c r="H27" s="38"/>
-      <c r="L27" s="38"/>
-      <c r="M27" s="72">
-        <v>37</v>
-      </c>
-      <c r="N27" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="O27" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="P27" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q27" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="R27" s="36"/>
-    </row>
-    <row r="28" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B28" s="48">
-        <v>20</v>
-      </c>
-      <c r="C28" s="63" t="s">
-        <v>140</v>
-      </c>
-      <c r="D28" s="63" t="s">
-        <v>65</v>
-      </c>
-      <c r="E28" s="40"/>
-      <c r="F28" s="35"/>
-      <c r="G28" s="53"/>
-      <c r="H28" s="38"/>
-      <c r="L28" s="38"/>
-      <c r="M28" s="72">
-        <v>38</v>
-      </c>
-      <c r="N28" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="O28" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="P28" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q28" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="R28" s="36"/>
-    </row>
-    <row r="29" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B29" s="48">
-        <v>21</v>
-      </c>
-      <c r="C29" s="63" t="s">
-        <v>102</v>
-      </c>
-      <c r="D29" s="63" t="s">
-        <v>16</v>
-      </c>
-      <c r="E29" s="40"/>
-      <c r="F29" s="35"/>
-      <c r="G29" s="53"/>
-      <c r="H29" s="38"/>
-      <c r="L29" s="38"/>
-      <c r="M29" s="72">
-        <v>39</v>
-      </c>
-      <c r="N29" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="O29" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="P29" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q29" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="R29" s="36"/>
-    </row>
-    <row r="30" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B30" s="48">
-        <v>22</v>
-      </c>
-      <c r="C30" s="63" t="s">
-        <v>103</v>
-      </c>
-      <c r="D30" s="63" t="s">
-        <v>16</v>
-      </c>
-      <c r="E30" s="40"/>
-      <c r="F30" s="35"/>
-      <c r="G30" s="53"/>
-      <c r="H30" s="38"/>
-      <c r="L30" s="38"/>
-      <c r="M30" s="72">
-        <v>40</v>
-      </c>
-      <c r="N30" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="O30" s="35" t="s">
-        <v>50</v>
-      </c>
-      <c r="P30" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q30" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="R30" s="36"/>
-    </row>
-    <row r="31" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B31" s="48">
-        <v>23</v>
-      </c>
-      <c r="C31" s="63" t="s">
-        <v>64</v>
-      </c>
-      <c r="D31" s="63" t="s">
-        <v>65</v>
-      </c>
-      <c r="E31" s="40"/>
-      <c r="F31" s="35"/>
-      <c r="G31" s="53"/>
-      <c r="H31" s="38"/>
-      <c r="L31" s="38"/>
-      <c r="M31" s="72">
-        <v>41</v>
-      </c>
-      <c r="N31" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="O31" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="P31" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q31" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="R31" s="36"/>
-    </row>
-    <row r="32" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B32" s="48">
-        <v>24</v>
-      </c>
-      <c r="C32" s="63" t="s">
-        <v>66</v>
-      </c>
-      <c r="D32" s="63" t="s">
-        <v>65</v>
-      </c>
-      <c r="E32" s="40"/>
-      <c r="F32" s="35"/>
-      <c r="G32" s="53"/>
-      <c r="H32" s="38"/>
-      <c r="L32" s="38"/>
-      <c r="M32" s="71">
-        <v>42</v>
-      </c>
-      <c r="N32" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="O32" s="35" t="s">
-        <v>52</v>
-      </c>
-      <c r="P32" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q32" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="R32" s="36"/>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B33" s="48">
-        <v>25</v>
-      </c>
-      <c r="C33" s="63" t="s">
-        <v>67</v>
-      </c>
-      <c r="D33" s="63" t="s">
-        <v>65</v>
-      </c>
-      <c r="E33" s="40"/>
-      <c r="F33" s="35"/>
-      <c r="G33" s="53"/>
-      <c r="H33" s="38"/>
-      <c r="L33" s="38"/>
-      <c r="M33" s="71">
-        <v>43</v>
-      </c>
-      <c r="N33" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="O33" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="P33" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q33" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="R33" s="36"/>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B34" s="48">
-        <v>26</v>
-      </c>
-      <c r="C34" s="63" t="s">
-        <v>68</v>
-      </c>
-      <c r="D34" s="63" t="s">
-        <v>65</v>
-      </c>
-      <c r="E34" s="40"/>
-      <c r="F34" s="35"/>
-      <c r="G34" s="53"/>
-      <c r="H34" s="38"/>
-      <c r="L34" s="38"/>
-      <c r="M34" s="71">
-        <v>44</v>
-      </c>
-      <c r="N34" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="O34" s="35" t="s">
-        <v>54</v>
-      </c>
-      <c r="P34" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q34" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="R34" s="36"/>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B35" s="47">
-        <v>27</v>
-      </c>
-      <c r="C35" s="63" t="s">
-        <v>69</v>
-      </c>
-      <c r="D35" s="63" t="s">
-        <v>65</v>
-      </c>
-      <c r="E35" s="40"/>
-      <c r="F35" s="35"/>
-      <c r="G35" s="53"/>
-      <c r="H35" s="38"/>
-      <c r="L35" s="38"/>
-      <c r="M35" s="71">
-        <v>45</v>
-      </c>
-      <c r="N35" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="O35" s="35" t="s">
-        <v>55</v>
-      </c>
-      <c r="P35" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q35" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="R35" s="36"/>
-    </row>
-    <row r="36" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B36" s="47">
-        <v>28</v>
-      </c>
-      <c r="C36" s="63" t="s">
-        <v>70</v>
-      </c>
-      <c r="D36" s="63" t="s">
-        <v>65</v>
-      </c>
-      <c r="E36" s="40"/>
-      <c r="F36" s="35"/>
-      <c r="G36" s="53"/>
-      <c r="H36" s="38"/>
-      <c r="L36" s="38"/>
-      <c r="M36" s="72">
-        <v>46</v>
-      </c>
-      <c r="N36" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="O36" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="P36" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q36" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="R36" s="36"/>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B37" s="47">
-        <v>29</v>
-      </c>
-      <c r="C37" s="35" t="s">
-        <v>71</v>
-      </c>
-      <c r="D37" s="63" t="s">
-        <v>65</v>
-      </c>
-      <c r="E37" s="40"/>
-      <c r="F37" s="35"/>
-      <c r="G37" s="53"/>
-      <c r="H37" s="38"/>
-      <c r="L37" s="38"/>
-      <c r="M37" s="72">
-        <v>47</v>
-      </c>
-      <c r="N37" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="O37" s="35" t="s">
-        <v>57</v>
-      </c>
-      <c r="P37" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q37" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="R37" s="36"/>
-    </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B38" s="47">
-        <v>30</v>
-      </c>
-      <c r="C38" s="63" t="s">
-        <v>72</v>
-      </c>
-      <c r="D38" s="63" t="s">
-        <v>65</v>
-      </c>
-      <c r="E38" s="40"/>
-      <c r="F38" s="35"/>
-      <c r="G38" s="53"/>
-      <c r="H38" s="38"/>
-      <c r="L38" s="38"/>
-      <c r="M38" s="72">
-        <v>48</v>
-      </c>
-      <c r="N38" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="O38" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="P38" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q38" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="R38" s="36"/>
-    </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B39" s="48">
-        <v>31</v>
-      </c>
-      <c r="C39" s="63" t="s">
-        <v>73</v>
-      </c>
-      <c r="D39" s="63" t="s">
-        <v>65</v>
-      </c>
-      <c r="E39" s="40"/>
-      <c r="F39" s="35"/>
-      <c r="G39" s="53"/>
-      <c r="H39" s="38"/>
-      <c r="L39" s="38"/>
-      <c r="M39" s="72">
-        <v>49</v>
-      </c>
-      <c r="N39" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="O39" s="35" t="s">
-        <v>59</v>
-      </c>
-      <c r="P39" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q39" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="R39" s="36"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B40" s="48">
-        <v>32</v>
-      </c>
-      <c r="C40" s="63" t="s">
+      <c r="C40" s="59" t="s">
         <v>74</v>
       </c>
-      <c r="D40" s="63" t="s">
+      <c r="D40" s="59" t="s">
         <v>65</v>
       </c>
       <c r="E40" s="24"/>
       <c r="F40" s="24"/>
-      <c r="G40" s="53"/>
-      <c r="H40" s="38"/>
-      <c r="L40" s="38"/>
-      <c r="M40" s="72">
+      <c r="G40" s="49"/>
+      <c r="H40" s="37"/>
+      <c r="L40" s="37"/>
+      <c r="M40" s="68">
         <v>50</v>
       </c>
       <c r="N40" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="O40" s="35" t="s">
+        <v>145</v>
+      </c>
+      <c r="O40" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="P40" s="40" t="s">
+      <c r="P40" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="Q40" s="35" t="s">
+      <c r="Q40" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="R40" s="36"/>
+      <c r="R40" s="35"/>
     </row>
     <row r="41" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B41" s="48">
+      <c r="B41" s="44">
         <v>33</v>
       </c>
-      <c r="C41" s="63" t="s">
+      <c r="C41" s="59" t="s">
         <v>75</v>
       </c>
-      <c r="D41" s="63" t="s">
+      <c r="D41" s="59" t="s">
         <v>65</v>
       </c>
       <c r="E41" s="24"/>
       <c r="F41" s="24"/>
-      <c r="G41" s="53"/>
-      <c r="H41" s="38"/>
-      <c r="L41" s="38"/>
-      <c r="M41" s="72">
+      <c r="G41" s="49"/>
+      <c r="H41" s="37"/>
+      <c r="L41" s="37"/>
+      <c r="M41" s="68">
         <v>51</v>
       </c>
       <c r="N41" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="O41" s="35" t="s">
+        <v>145</v>
+      </c>
+      <c r="O41" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="P41" s="40" t="s">
+      <c r="P41" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="Q41" s="35" t="s">
+      <c r="Q41" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="R41" s="36"/>
+      <c r="R41" s="35"/>
     </row>
     <row r="42" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B42" s="48">
+      <c r="B42" s="44">
         <v>34</v>
       </c>
-      <c r="C42" s="63" t="s">
+      <c r="C42" s="59" t="s">
         <v>76</v>
       </c>
-      <c r="D42" s="63" t="s">
+      <c r="D42" s="59" t="s">
         <v>65</v>
       </c>
       <c r="E42" s="24"/>
       <c r="F42" s="24"/>
-      <c r="G42" s="53"/>
-      <c r="H42" s="38"/>
-      <c r="L42" s="38"/>
-      <c r="M42" s="72">
+      <c r="G42" s="49"/>
+      <c r="H42" s="37"/>
+      <c r="L42" s="37"/>
+      <c r="M42" s="68">
         <v>52</v>
       </c>
       <c r="N42" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="O42" s="35" t="s">
+        <v>145</v>
+      </c>
+      <c r="O42" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="P42" s="40" t="s">
+      <c r="P42" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="Q42" s="35" t="s">
+      <c r="Q42" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="R42" s="36"/>
+      <c r="R42" s="35"/>
     </row>
     <row r="43" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="48">
+      <c r="B43" s="44">
         <v>35</v>
       </c>
-      <c r="C43" s="63" t="s">
+      <c r="C43" s="59" t="s">
         <v>77</v>
       </c>
-      <c r="D43" s="63" t="s">
+      <c r="D43" s="59" t="s">
         <v>65</v>
       </c>
       <c r="E43" s="24"/>
       <c r="F43" s="24"/>
-      <c r="G43" s="53"/>
-      <c r="H43" s="38"/>
-      <c r="L43" s="39"/>
-      <c r="M43" s="73">
+      <c r="G43" s="49"/>
+      <c r="H43" s="37"/>
+      <c r="L43" s="38"/>
+      <c r="M43" s="69">
         <v>65</v>
       </c>
-      <c r="N43" s="56" t="s">
-        <v>146</v>
-      </c>
-      <c r="O43" s="57" t="s">
+      <c r="N43" s="52" t="s">
+        <v>145</v>
+      </c>
+      <c r="O43" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="P43" s="57" t="s">
+      <c r="P43" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="Q43" s="57" t="s">
+      <c r="Q43" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="R43" s="58"/>
+      <c r="R43" s="54"/>
     </row>
     <row r="44" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B44" s="48">
+      <c r="B44" s="44">
         <v>36</v>
       </c>
-      <c r="C44" s="63" t="s">
+      <c r="C44" s="59" t="s">
         <v>78</v>
       </c>
-      <c r="D44" s="63" t="s">
+      <c r="D44" s="59" t="s">
         <v>65</v>
       </c>
-      <c r="E44" s="64"/>
+      <c r="E44" s="60"/>
       <c r="F44" s="24"/>
-      <c r="G44" s="69"/>
-      <c r="H44" s="38"/>
+      <c r="G44" s="65"/>
+      <c r="H44" s="37"/>
     </row>
     <row r="45" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B45" s="48">
+      <c r="B45" s="44">
         <v>37</v>
       </c>
-      <c r="C45" s="63" t="s">
+      <c r="C45" s="59" t="s">
         <v>79</v>
       </c>
-      <c r="D45" s="63" t="s">
+      <c r="D45" s="59" t="s">
         <v>65</v>
       </c>
-      <c r="E45" s="64"/>
-      <c r="F45" s="65"/>
-      <c r="G45" s="69"/>
-      <c r="H45" s="38"/>
+      <c r="E45" s="60"/>
+      <c r="F45" s="61"/>
+      <c r="G45" s="65"/>
+      <c r="H45" s="37"/>
     </row>
     <row r="46" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B46" s="48">
+      <c r="B46" s="44">
         <v>38</v>
       </c>
-      <c r="C46" s="63" t="s">
+      <c r="C46" s="59" t="s">
         <v>80</v>
       </c>
-      <c r="D46" s="63" t="s">
+      <c r="D46" s="59" t="s">
         <v>65</v>
       </c>
-      <c r="E46" s="64"/>
-      <c r="F46" s="65"/>
-      <c r="G46" s="69"/>
-      <c r="H46" s="38"/>
+      <c r="E46" s="60"/>
+      <c r="F46" s="61"/>
+      <c r="G46" s="65"/>
+      <c r="H46" s="37"/>
     </row>
     <row r="47" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B47" s="48">
+      <c r="B47" s="44">
         <v>39</v>
       </c>
-      <c r="C47" s="63" t="s">
+      <c r="C47" s="59" t="s">
         <v>81</v>
       </c>
-      <c r="D47" s="63" t="s">
+      <c r="D47" s="59" t="s">
         <v>65</v>
       </c>
-      <c r="E47" s="64"/>
-      <c r="F47" s="65"/>
-      <c r="G47" s="69"/>
-      <c r="H47" s="38"/>
+      <c r="E47" s="60"/>
+      <c r="F47" s="61"/>
+      <c r="G47" s="65"/>
+      <c r="H47" s="37"/>
     </row>
     <row r="48" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B48" s="48">
+      <c r="B48" s="44">
         <v>40</v>
       </c>
-      <c r="C48" s="63" t="s">
+      <c r="C48" s="59" t="s">
         <v>82</v>
       </c>
-      <c r="D48" s="63" t="s">
+      <c r="D48" s="59" t="s">
         <v>65</v>
       </c>
-      <c r="E48" s="64"/>
-      <c r="F48" s="65"/>
-      <c r="G48" s="69"/>
-      <c r="H48" s="38"/>
+      <c r="E48" s="60"/>
+      <c r="F48" s="61"/>
+      <c r="G48" s="65"/>
+      <c r="H48" s="37"/>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B49" s="48">
+      <c r="B49" s="44">
         <v>41</v>
       </c>
-      <c r="C49" s="63" t="s">
+      <c r="C49" s="59" t="s">
         <v>83</v>
       </c>
-      <c r="D49" s="63" t="s">
+      <c r="D49" s="59" t="s">
         <v>65</v>
       </c>
-      <c r="E49" s="64"/>
-      <c r="F49" s="65"/>
-      <c r="G49" s="69"/>
-      <c r="H49" s="38"/>
+      <c r="E49" s="60"/>
+      <c r="F49" s="61"/>
+      <c r="G49" s="65"/>
+      <c r="H49" s="37"/>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B50" s="47">
+      <c r="B50" s="43">
         <v>42</v>
       </c>
-      <c r="C50" s="63" t="s">
+      <c r="C50" s="59" t="s">
         <v>84</v>
       </c>
-      <c r="D50" s="63" t="s">
+      <c r="D50" s="59" t="s">
         <v>65</v>
       </c>
-      <c r="E50" s="64"/>
-      <c r="F50" s="65"/>
-      <c r="G50" s="69"/>
-      <c r="H50" s="38"/>
+      <c r="E50" s="60"/>
+      <c r="F50" s="61"/>
+      <c r="G50" s="65"/>
+      <c r="H50" s="37"/>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B51" s="47">
+      <c r="B51" s="43">
         <v>43</v>
       </c>
-      <c r="C51" s="63" t="s">
+      <c r="C51" s="59" t="s">
         <v>85</v>
       </c>
-      <c r="D51" s="63" t="s">
+      <c r="D51" s="59" t="s">
         <v>65</v>
       </c>
-      <c r="E51" s="64"/>
-      <c r="F51" s="65"/>
-      <c r="G51" s="69"/>
-      <c r="H51" s="38"/>
+      <c r="E51" s="60"/>
+      <c r="F51" s="61"/>
+      <c r="G51" s="65"/>
+      <c r="H51" s="37"/>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B52" s="47">
+      <c r="B52" s="43">
         <v>44</v>
       </c>
-      <c r="C52" s="63" t="s">
+      <c r="C52" s="59" t="s">
         <v>86</v>
       </c>
-      <c r="D52" s="63" t="s">
+      <c r="D52" s="59" t="s">
         <v>65</v>
       </c>
-      <c r="E52" s="64"/>
-      <c r="F52" s="65"/>
-      <c r="G52" s="69"/>
-      <c r="H52" s="38"/>
+      <c r="E52" s="60"/>
+      <c r="F52" s="61"/>
+      <c r="G52" s="65"/>
+      <c r="H52" s="37"/>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B53" s="47">
+      <c r="B53" s="43">
         <v>45</v>
       </c>
-      <c r="C53" s="63" t="s">
+      <c r="C53" s="59" t="s">
         <v>87</v>
       </c>
-      <c r="D53" s="63" t="s">
+      <c r="D53" s="59" t="s">
         <v>65</v>
       </c>
-      <c r="E53" s="64"/>
-      <c r="F53" s="65"/>
-      <c r="G53" s="69"/>
-      <c r="H53" s="38"/>
+      <c r="E53" s="60"/>
+      <c r="F53" s="61"/>
+      <c r="G53" s="65"/>
+      <c r="H53" s="37"/>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B54" s="48">
+      <c r="B54" s="44">
         <v>46</v>
       </c>
-      <c r="C54" s="63" t="s">
+      <c r="C54" s="59" t="s">
         <v>88</v>
       </c>
-      <c r="D54" s="63" t="s">
+      <c r="D54" s="59" t="s">
         <v>65</v>
       </c>
-      <c r="E54" s="64"/>
-      <c r="F54" s="65"/>
-      <c r="G54" s="69"/>
-      <c r="H54" s="38"/>
+      <c r="E54" s="60"/>
+      <c r="F54" s="61"/>
+      <c r="G54" s="65"/>
+      <c r="H54" s="37"/>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B55" s="48">
+      <c r="B55" s="44">
         <v>47</v>
       </c>
-      <c r="C55" s="63" t="s">
+      <c r="C55" s="59" t="s">
         <v>89</v>
       </c>
-      <c r="D55" s="63" t="s">
+      <c r="D55" s="59" t="s">
         <v>65</v>
       </c>
-      <c r="E55" s="64"/>
-      <c r="F55" s="65"/>
-      <c r="G55" s="69"/>
-      <c r="H55" s="38"/>
+      <c r="E55" s="60"/>
+      <c r="F55" s="61"/>
+      <c r="G55" s="65"/>
+      <c r="H55" s="37"/>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B56" s="48">
+      <c r="B56" s="44">
         <v>48</v>
       </c>
-      <c r="C56" s="63" t="s">
+      <c r="C56" s="59" t="s">
         <v>90</v>
       </c>
-      <c r="D56" s="63" t="s">
+      <c r="D56" s="59" t="s">
         <v>65</v>
       </c>
-      <c r="E56" s="64"/>
-      <c r="F56" s="65"/>
-      <c r="G56" s="69"/>
-      <c r="H56" s="38"/>
+      <c r="E56" s="60"/>
+      <c r="F56" s="61"/>
+      <c r="G56" s="65"/>
+      <c r="H56" s="37"/>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B57" s="48">
+      <c r="B57" s="44">
         <v>49</v>
       </c>
-      <c r="C57" s="63" t="s">
+      <c r="C57" s="59" t="s">
         <v>91</v>
       </c>
-      <c r="D57" s="63" t="s">
+      <c r="D57" s="59" t="s">
         <v>65</v>
       </c>
-      <c r="E57" s="64"/>
-      <c r="F57" s="65"/>
-      <c r="G57" s="69"/>
-      <c r="H57" s="38"/>
+      <c r="E57" s="60"/>
+      <c r="F57" s="61"/>
+      <c r="G57" s="65"/>
+      <c r="H57" s="37"/>
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B58" s="48">
+      <c r="B58" s="44">
         <v>50</v>
       </c>
-      <c r="C58" s="63" t="s">
+      <c r="C58" s="59" t="s">
         <v>92</v>
       </c>
-      <c r="D58" s="63" t="s">
+      <c r="D58" s="59" t="s">
         <v>65</v>
       </c>
-      <c r="E58" s="64"/>
-      <c r="F58" s="65"/>
-      <c r="G58" s="69"/>
-      <c r="H58" s="38"/>
+      <c r="E58" s="60"/>
+      <c r="F58" s="61"/>
+      <c r="G58" s="65"/>
+      <c r="H58" s="37"/>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B59" s="48">
+      <c r="B59" s="44">
         <v>51</v>
       </c>
-      <c r="C59" s="63" t="s">
+      <c r="C59" s="59" t="s">
         <v>93</v>
       </c>
-      <c r="D59" s="63" t="s">
+      <c r="D59" s="59" t="s">
         <v>65</v>
       </c>
-      <c r="E59" s="64"/>
-      <c r="F59" s="65"/>
-      <c r="G59" s="69"/>
-      <c r="H59" s="38"/>
+      <c r="E59" s="60"/>
+      <c r="F59" s="61"/>
+      <c r="G59" s="65"/>
+      <c r="H59" s="37"/>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B60" s="48">
+      <c r="B60" s="44">
         <v>52</v>
       </c>
-      <c r="C60" s="63" t="s">
+      <c r="C60" s="59" t="s">
         <v>94</v>
       </c>
-      <c r="D60" s="63" t="s">
+      <c r="D60" s="59" t="s">
         <v>65</v>
       </c>
-      <c r="E60" s="64"/>
-      <c r="F60" s="65"/>
-      <c r="G60" s="69"/>
-      <c r="H60" s="38"/>
+      <c r="E60" s="60"/>
+      <c r="F60" s="61"/>
+      <c r="G60" s="65"/>
+      <c r="H60" s="37"/>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B61" s="48">
+      <c r="B61" s="44">
         <v>53</v>
       </c>
-      <c r="C61" s="63" t="s">
+      <c r="C61" s="59" t="s">
+        <v>140</v>
+      </c>
+      <c r="D61" s="59" t="s">
+        <v>113</v>
+      </c>
+      <c r="E61" s="60"/>
+      <c r="F61" s="61"/>
+      <c r="G61" s="65"/>
+      <c r="H61" s="37"/>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B62" s="44">
+        <v>54</v>
+      </c>
+      <c r="C62" s="59" t="s">
         <v>141</v>
       </c>
-      <c r="D61" s="63" t="s">
-        <v>114</v>
-      </c>
-      <c r="E61" s="64"/>
-      <c r="F61" s="65"/>
-      <c r="G61" s="69"/>
-      <c r="H61" s="38"/>
-    </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B62" s="48">
-        <v>54</v>
-      </c>
-      <c r="C62" s="63" t="s">
+      <c r="D62" s="59" t="s">
+        <v>138</v>
+      </c>
+      <c r="E62" s="60"/>
+      <c r="F62" s="61"/>
+      <c r="G62" s="65"/>
+      <c r="H62" s="37"/>
+    </row>
+    <row r="63" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B63" s="44">
+        <v>55</v>
+      </c>
+      <c r="C63" s="59" t="s">
         <v>142</v>
       </c>
-      <c r="D62" s="63" t="s">
-        <v>139</v>
-      </c>
-      <c r="E62" s="64"/>
-      <c r="F62" s="65"/>
-      <c r="G62" s="69"/>
-      <c r="H62" s="38"/>
-    </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B63" s="48">
-        <v>55</v>
-      </c>
-      <c r="C63" s="63" t="s">
+      <c r="D63" s="59" t="s">
+        <v>138</v>
+      </c>
+      <c r="E63" s="60"/>
+      <c r="F63" s="61"/>
+      <c r="G63" s="65"/>
+      <c r="H63" s="37"/>
+    </row>
+    <row r="64" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B64" s="44">
+        <v>56</v>
+      </c>
+      <c r="C64" s="59" t="s">
+        <v>105</v>
+      </c>
+      <c r="D64" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="E64" s="60"/>
+      <c r="F64" s="61"/>
+      <c r="G64" s="65"/>
+      <c r="H64" s="37"/>
+    </row>
+    <row r="65" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B65" s="43">
+        <v>57</v>
+      </c>
+      <c r="C65" s="59" t="s">
+        <v>63</v>
+      </c>
+      <c r="D65" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="E65" s="60"/>
+      <c r="F65" s="61"/>
+      <c r="G65" s="65"/>
+      <c r="H65" s="37"/>
+    </row>
+    <row r="66" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="63">
+        <v>58</v>
+      </c>
+      <c r="C66" s="64" t="s">
         <v>143</v>
       </c>
-      <c r="D63" s="63" t="s">
-        <v>139</v>
-      </c>
-      <c r="E63" s="64"/>
-      <c r="F63" s="65"/>
-      <c r="G63" s="69"/>
-      <c r="H63" s="38"/>
-    </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B64" s="48">
-        <v>56</v>
-      </c>
-      <c r="C64" s="63" t="s">
-        <v>106</v>
-      </c>
-      <c r="D64" s="63" t="s">
-        <v>18</v>
-      </c>
-      <c r="E64" s="64"/>
-      <c r="F64" s="65"/>
-      <c r="G64" s="69"/>
-      <c r="H64" s="38"/>
-    </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B65" s="47">
-        <v>57</v>
-      </c>
-      <c r="C65" s="63" t="s">
-        <v>63</v>
-      </c>
-      <c r="D65" s="63" t="s">
-        <v>18</v>
-      </c>
-      <c r="E65" s="64"/>
-      <c r="F65" s="65"/>
-      <c r="G65" s="69"/>
-      <c r="H65" s="38"/>
-    </row>
-    <row r="66" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="67">
-        <v>58</v>
-      </c>
-      <c r="C66" s="68" t="s">
+      <c r="D66" s="64" t="s">
         <v>144</v>
       </c>
-      <c r="D66" s="68" t="s">
-        <v>145</v>
-      </c>
-      <c r="E66" s="49"/>
-      <c r="F66" s="50"/>
-      <c r="G66" s="54"/>
-      <c r="H66" s="39"/>
+      <c r="E66" s="45"/>
+      <c r="F66" s="46"/>
+      <c r="G66" s="50"/>
+      <c r="H66" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="8">
